--- a/物理学会の所属を書くためのエクセル.xlsx
+++ b/物理学会の所属を書くためのエクセル.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gotoyu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gotoyu/Documents/GitHub/Write-down-Co-Authors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F218C669-0D92-5B48-9479-2893B48CAED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41779B3-90DE-2941-B02E-F1BB0C5BF50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28540" windowHeight="16940" xr2:uid="{BF62DBFF-CEEB-C143-9F28-3D7B4BA14EF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1508,7 +1508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1683,28 +1683,19 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2055,7 +2046,7 @@
   <dimension ref="A1:XFA68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="L28" sqref="L28:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2416,7 +2407,7 @@
       <c r="X9" s="27"/>
       <c r="Y9" s="27"/>
       <c r="Z9" s="27"/>
-      <c r="AA9" s="63"/>
+      <c r="AA9" s="27"/>
       <c r="AB9" s="27"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
@@ -2462,13 +2453,13 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="58"/>
+      <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="5"/>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="6"/>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="61" t="s">
         <v>82</v>
       </c>
       <c r="C11" s="30"/>
@@ -2497,12 +2488,12 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
-      <c r="AA11" s="58"/>
+      <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="5"/>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="61" t="s">
         <v>83</v>
       </c>
       <c r="B12" s="30"/>
@@ -2536,12 +2527,12 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
-      <c r="AA12" s="58"/>
+      <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="5"/>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="60" t="s">
         <v>81</v>
       </c>
       <c r="B13" s="34"/>
@@ -2581,7 +2572,7 @@
         <v>52</v>
       </c>
       <c r="Z13" s="6"/>
-      <c r="AA13" s="58"/>
+      <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="5"/>
     </row>
@@ -2640,11 +2631,11 @@
         <v>A</v>
       </c>
       <c r="Q14" s="45" t="str">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($G14,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ref="Q14:Q19" ca="1" si="0">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($G14,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
         <v>，B</v>
       </c>
       <c r="R14" s="45" t="e">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($H14,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ref="R14:R19" ca="1" si="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($H14,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
         <v>#N/A</v>
       </c>
       <c r="S14" s="45" t="s">
@@ -2662,18 +2653,18 @@
         <v>A</v>
       </c>
       <c r="W14" s="45" t="str">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($G14,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ref="W14:W19" ca="1" si="2">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($G14,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
         <v>，B</v>
       </c>
       <c r="X14" s="45" t="e">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($H14,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ref="X14:X19" ca="1" si="3">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($H14,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
         <v>#N/A</v>
       </c>
       <c r="Y14" s="46" t="s">
         <v>13</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="59"/>
+      <c r="AA14" s="47"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="5"/>
     </row>
@@ -2713,7 +2704,7 @@
         <v>Kobayashi - Maskawa Institute, NagoyaUniversity</v>
       </c>
       <c r="M15" s="6" t="str">
-        <f t="shared" ref="M15:M23" si="0">CHAR(51+ROW())</f>
+        <f t="shared" ref="M15:M23" si="4">CHAR(51+ROW())</f>
         <v>B</v>
       </c>
       <c r="N15" s="44" t="str" cm="1">
@@ -2728,11 +2719,11 @@
         <v>C</v>
       </c>
       <c r="Q15" s="45" t="e">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($G15,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="R15" s="45" t="e">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($H15,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="S15" s="45" t="s">
@@ -2750,18 +2741,18 @@
         <v>C</v>
       </c>
       <c r="W15" s="45" t="e">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($G15,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="X15" s="45" t="e">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($H15,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="Y15" s="46" t="s">
         <v>13</v>
       </c>
       <c r="Z15" s="6"/>
-      <c r="AA15" s="59"/>
+      <c r="AA15" s="47"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="5"/>
     </row>
@@ -2805,7 +2796,7 @@
         <v>Institute of Materials Structure Science, High Energy Accelerator Research Organization (KEK), </v>
       </c>
       <c r="M16" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>C</v>
       </c>
       <c r="N16" s="44" t="str" cm="1">
@@ -2820,11 +2811,11 @@
         <v>D</v>
       </c>
       <c r="Q16" s="45" t="str">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($G16,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>，C</v>
       </c>
       <c r="R16" s="45" t="str">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($H16,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>，B</v>
       </c>
       <c r="S16" s="45" t="s">
@@ -2842,18 +2833,18 @@
         <v>D</v>
       </c>
       <c r="W16" s="45" t="str">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($G16,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>，C</v>
       </c>
       <c r="X16" s="45" t="str">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($H16,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>，B</v>
       </c>
       <c r="Y16" s="46" t="s">
         <v>13</v>
       </c>
       <c r="Z16" s="6"/>
-      <c r="AA16" s="60"/>
+      <c r="AA16" s="58"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="5"/>
     </row>
@@ -2893,7 +2884,7 @@
         <v>School of Engineering Graduate School of Engineering</v>
       </c>
       <c r="M17" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="N17" s="44" t="str" cm="1">
@@ -2908,11 +2899,11 @@
         <v>E</v>
       </c>
       <c r="Q17" s="45" t="e">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($G17,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="R17" s="45" t="e">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($H17,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="S17" s="45" t="s">
@@ -2930,18 +2921,18 @@
         <v>E</v>
       </c>
       <c r="W17" s="45" t="e">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($G17,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="X17" s="45" t="e">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($H17,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="Y17" s="46" t="s">
         <v>13</v>
       </c>
       <c r="Z17" s="6"/>
-      <c r="AA17" s="58"/>
+      <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="2"/>
       <c r="AG17" s="2"/>
@@ -7071,7 +7062,7 @@
         <v>SOKENDAI</v>
       </c>
       <c r="M18" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>E</v>
       </c>
       <c r="N18" s="44" t="str" cm="1">
@@ -7086,11 +7077,11 @@
         <v>F</v>
       </c>
       <c r="Q18" s="45" t="str">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($G18,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>，E</v>
       </c>
       <c r="R18" s="45" t="e">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($H18,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="S18" s="45" t="s">
@@ -7108,11 +7099,11 @@
         <v>F</v>
       </c>
       <c r="W18" s="45" t="str">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($G18,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>，E</v>
       </c>
       <c r="X18" s="45" t="e">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($H18,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="Y18" s="46" t="s">
@@ -7161,7 +7152,7 @@
         <v>School of Science,  The University of Tokyo</v>
       </c>
       <c r="M19" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="N19" s="44" t="str" cm="1">
@@ -7176,11 +7167,11 @@
         <v>F</v>
       </c>
       <c r="Q19" s="45" t="str">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($G19,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>，E</v>
       </c>
       <c r="R19" s="45" t="e">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($H19,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="S19" s="45" t="s">
@@ -7198,11 +7189,11 @@
         <v>F</v>
       </c>
       <c r="W19" s="45" t="str">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($G19,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>，E</v>
       </c>
       <c r="X19" s="45" t="e">
-        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($H19,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="Y19" s="46" t="s">
@@ -7235,7 +7226,7 @@
         <v>#N/A</v>
       </c>
       <c r="M20" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>G</v>
       </c>
       <c r="N20" s="44"/>
@@ -7277,7 +7268,7 @@
         <v>#N/A</v>
       </c>
       <c r="M21" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>H</v>
       </c>
       <c r="N21" s="44"/>
@@ -7361,7 +7352,7 @@
         <v>#N/A</v>
       </c>
       <c r="M23" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>J</v>
       </c>
       <c r="N23" s="44"/>
@@ -7663,56 +7654,56 @@
       <c r="AC32" s="5"/>
     </row>
     <row r="33" spans="1:29" ht="21" thickBot="1">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
       <c r="AC33" s="5"/>
     </row>
     <row r="34" spans="1:29">
       <c r="A34" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
@@ -7731,67 +7722,67 @@
         <f t="array" aca="1" ref="A35:AC35" ca="1">_xlfn.TOROW($N$14:$S$30,3)</f>
         <v>後藤 優</v>
       </c>
-      <c r="B35" s="62" t="str">
+      <c r="B35" s="6" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="C35" s="62" t="str">
+      <c r="C35" s="6" t="str">
         <f ca="1"/>
         <v>A</v>
       </c>
-      <c r="D35" s="62" t="str">
+      <c r="D35" s="6" t="str">
         <f ca="1"/>
         <v>，B</v>
       </c>
-      <c r="E35" s="62" t="str">
+      <c r="E35" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">^, </v>
       </c>
-      <c r="F35" s="62" t="str">
+      <c r="F35" s="6" t="str">
         <f ca="1"/>
         <v>宇佐 儀</v>
       </c>
-      <c r="G35" s="62" t="str">
+      <c r="G35" s="6" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="H35" s="62" t="str">
+      <c r="H35" s="6" t="str">
         <f ca="1"/>
         <v>C</v>
       </c>
-      <c r="I35" s="62" t="str">
+      <c r="I35" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">^, </v>
       </c>
-      <c r="J35" s="62" t="str">
+      <c r="J35" s="6" t="str">
         <f ca="1"/>
         <v>マーガレット サッチャー</v>
       </c>
-      <c r="K35" s="62" t="str">
+      <c r="K35" s="6" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="L35" s="62" t="str">
+      <c r="L35" s="6" t="str">
         <f ca="1"/>
         <v>D</v>
       </c>
-      <c r="M35" s="62" t="str">
+      <c r="M35" s="6" t="str">
         <f ca="1"/>
         <v>，C</v>
       </c>
-      <c r="N35" s="62" t="str">
+      <c r="N35" s="6" t="str">
         <f ca="1"/>
         <v>，B</v>
       </c>
-      <c r="O35" s="62" t="str">
+      <c r="O35" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">^, </v>
       </c>
-      <c r="P35" s="62" t="str">
+      <c r="P35" s="6" t="str">
         <f ca="1"/>
         <v>小 可愛</v>
       </c>
-      <c r="Q35" s="62" t="str">
+      <c r="Q35" s="6" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
@@ -7849,67 +7840,67 @@
         <f t="array" aca="1" ref="A36:AC36" ca="1">_xlfn.TOROW($T$14:$Y$30,3)</f>
         <v>Y. Goto</v>
       </c>
-      <c r="B36" s="62" t="str">
+      <c r="B36" s="6" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="C36" s="62" t="str">
+      <c r="C36" s="6" t="str">
         <f ca="1"/>
         <v>A</v>
       </c>
-      <c r="D36" s="62" t="str">
+      <c r="D36" s="6" t="str">
         <f ca="1"/>
         <v>，B</v>
       </c>
-      <c r="E36" s="62" t="str">
+      <c r="E36" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">^, </v>
       </c>
-      <c r="F36" s="62" t="str">
+      <c r="F36" s="6" t="str">
         <f ca="1"/>
         <v>G. Usa</v>
       </c>
-      <c r="G36" s="62" t="str">
+      <c r="G36" s="6" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="H36" s="62" t="str">
+      <c r="H36" s="6" t="str">
         <f ca="1"/>
         <v>C</v>
       </c>
-      <c r="I36" s="62" t="str">
+      <c r="I36" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">^, </v>
       </c>
-      <c r="J36" s="62" t="str">
+      <c r="J36" s="6" t="str">
         <f ca="1"/>
         <v>M. H. Thatcher</v>
       </c>
-      <c r="K36" s="62" t="str">
+      <c r="K36" s="6" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="L36" s="62" t="str">
+      <c r="L36" s="6" t="str">
         <f ca="1"/>
         <v>D</v>
       </c>
-      <c r="M36" s="62" t="str">
+      <c r="M36" s="6" t="str">
         <f ca="1"/>
         <v>，C</v>
       </c>
-      <c r="N36" s="62" t="str">
+      <c r="N36" s="6" t="str">
         <f ca="1"/>
         <v>，B</v>
       </c>
-      <c r="O36" s="62" t="str">
+      <c r="O36" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">^, </v>
       </c>
-      <c r="P36" s="62" t="str">
+      <c r="P36" s="6" t="str">
         <f ca="1"/>
         <v>K. Chii</v>
       </c>
-      <c r="Q36" s="62" t="str">
+      <c r="Q36" s="6" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
@@ -7962,26 +7953,26 @@
         <v>^</v>
       </c>
     </row>
-    <row r="37" spans="1:29">
-      <c r="A37" s="29" t="s">
+    <row r="37" spans="1:29" ht="21" thickBot="1">
+      <c r="A37" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>

--- a/物理学会の所属を書くためのエクセル.xlsx
+++ b/物理学会の所属を書くためのエクセル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gotoyu/Documents/GitHub/Write-down-Co-Authors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41779B3-90DE-2941-B02E-F1BB0C5BF50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EACCA1C-6F0B-5245-A513-421A436E8BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28540" windowHeight="16940" xr2:uid="{BF62DBFF-CEEB-C143-9F28-3D7B4BA14EF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t>KMI</t>
     <phoneticPr fontId="1"/>
@@ -111,14 +111,6 @@
   </si>
   <si>
     <t>K.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>^</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">^, </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -672,28 +664,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック Light"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>最終行は点と空白なし</t>
-    </r>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">サイシュウギョウ </t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t xml:space="preserve">テン </t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">クウハク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="游ゴシック Light"/>
@@ -813,20 +783,6 @@
         <charset val="128"/>
       </rPr>
       <t>く</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック Light"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ここをコピペ！！</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -1049,12 +1005,242 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>使い方</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>まず入力欄</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>薄い青で塗った部分</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">所属と名前を入力
+所属に対応させたひらがなを三つまで入力
+名前を五十音またはアルファベットでソート
+(ソートしなければ上から出力します)
+下に物理学会共著者入力用の出力が出てくるので
+必要に応じて選択範囲を変更
+</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ツカイカタ </t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t xml:space="preserve">ニュウリョクラン </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">ウスイ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">アオクヌリマシタ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ブブン </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">ショゾク </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">ナマエ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">ニュウリョクシマス </t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t xml:space="preserve">ショゾク </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t xml:space="preserve">ナマエ </t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t xml:space="preserve">ゴジュウオン </t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t xml:space="preserve">ウエカラ </t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t xml:space="preserve">シュツリョクシマス </t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t xml:space="preserve">シタ </t>
+    </rPh>
+    <rPh sb="91" eb="95">
+      <t xml:space="preserve">ブツリガッカイ </t>
+    </rPh>
+    <rPh sb="95" eb="98">
+      <t xml:space="preserve">キョウチョシャ </t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t xml:space="preserve">ヨウ </t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t xml:space="preserve">シュツリョク </t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t xml:space="preserve">デテクルノデ </t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t xml:space="preserve">ヒツヨウニ </t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t xml:space="preserve">オウジテ </t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t xml:space="preserve">センタク </t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t xml:space="preserve">ハンイ </t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここをコピペ！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めんどくなってきた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>↓この列の一番上は(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>="")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>にすること</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">イチバン </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ウエ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1147,14 +1333,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック Light"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -1183,8 +1361,47 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1199,12 +1416,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFC6F69"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1212,12 +1423,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,8 +1474,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1499,16 +1710,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1530,64 +1790,64 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1599,88 +1859,70 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1689,13 +1931,82 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1707,11 +2018,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFC6F69"/>
       <color rgb="FFE0EFFF"/>
       <color rgb="FFFFF4A4"/>
       <color rgb="FFF2FF9D"/>
       <color rgb="FF00F600"/>
-      <color rgb="FFFC6F69"/>
       <color rgb="FFC57E64"/>
     </mruColors>
   </colors>
@@ -2045,28 +2356,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D07450C-E36D-FF49-90F9-73F4066498AB}">
   <dimension ref="A1:XFA68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28:M28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" customWidth="1"/>
-    <col min="25" max="26" width="18.42578125" customWidth="1"/>
-    <col min="27" max="27" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="13" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" customWidth="1"/>
+    <col min="27" max="28" width="18.42578125" customWidth="1"/>
+    <col min="29" max="29" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="21" thickBot="1">
-      <c r="A1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="54" t="s">
+    <row r="1" spans="1:41" ht="21" customHeight="1" thickBot="1">
+      <c r="A1" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>72</v>
+      <c r="C1" s="59" t="s">
+        <v>68</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2091,18 +2405,22 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="5"/>
+      <c r="AA1" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="66"/>
     </row>
-    <row r="2" spans="1:39" ht="21" thickBot="1">
-      <c r="A2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:41" ht="21" customHeight="1" thickBot="1">
+      <c r="A2" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="59" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="6"/>
@@ -2116,32 +2434,34 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="11"/>
       <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="5"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="69"/>
     </row>
-    <row r="3" spans="1:39">
-      <c r="A3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:41" ht="20" customHeight="1">
+      <c r="A3" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="59" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="6"/>
@@ -2155,34 +2475,36 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="69"/>
+    </row>
+    <row r="4" spans="1:41" ht="20" customHeight="1">
+      <c r="A4" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="5"/>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="59" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="6"/>
@@ -2196,35 +2518,37 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="R4" s="18"/>
       <c r="S4" s="18"/>
-      <c r="T4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="21"/>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="5"/>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="69"/>
     </row>
-    <row r="5" spans="1:39">
-      <c r="A5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:41" ht="20" customHeight="1">
+      <c r="A5" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>78</v>
+      <c r="C5" s="59" t="s">
+        <v>74</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -2237,34 +2561,36 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
-      <c r="T5" s="19" t="s">
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="69"/>
+    </row>
+    <row r="6" spans="1:41" ht="20" customHeight="1">
+      <c r="A6" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="5"/>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="A6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="59" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="6"/>
@@ -2274,39 +2600,43 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="K6" s="48" t="s">
+        <v>82</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="R6" s="18"/>
       <c r="S6" s="18"/>
-      <c r="T6" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="21"/>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="5"/>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="69"/>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" s="53" t="s">
+    <row r="7" spans="1:41" ht="20" customHeight="1">
+      <c r="A7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>74</v>
+      <c r="B7" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>70</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2319,38 +2649,40 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
-      <c r="T7" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="21"/>
       <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="5"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="69"/>
     </row>
-    <row r="8" spans="1:39" ht="21" thickBot="1">
-      <c r="A8" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>77</v>
+    <row r="8" spans="1:41" ht="21" customHeight="1" thickBot="1">
+      <c r="A8" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>73</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="55"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -2360,27 +2692,29 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
-      <c r="T8" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="26"/>
       <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="5"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="69"/>
     </row>
-    <row r="9" spans="1:39" ht="25" customHeight="1">
+    <row r="9" spans="1:41" ht="25" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2407,23 +2741,25 @@
       <c r="X9" s="27"/>
       <c r="Y9" s="27"/>
       <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="3"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="69"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
+      <c r="AG9" s="3"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41" ht="20" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="27" t="str">
         <f>""</f>
@@ -2453,14 +2789,16 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="5"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="69"/>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41" ht="21" customHeight="1" thickBot="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="61" t="s">
-        <v>82</v>
+      <c r="B11" s="55" t="s">
+        <v>78</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -2468,33 +2806,35 @@
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
       <c r="H11" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="I11" s="73"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="72"/>
     </row>
-    <row r="12" spans="1:39">
-      <c r="A12" s="61" t="s">
-        <v>83</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="55" t="s">
+        <v>79</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -2503,17 +2843,19 @@
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
       <c r="H12" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="K12" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -2529,77 +2871,83 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
-      <c r="AC12" s="5"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="5"/>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35" t="s">
+    <row r="13" spans="1:41">
+      <c r="A13" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="29"/>
+      <c r="K13" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34"/>
+      <c r="AM13" s="34"/>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="A14" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="36" t="s">
+      <c r="B14" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="38" t="s">
+      <c r="D14" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="T13" s="38"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="5"/>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43" t="str" cm="1">
+      <c r="F14" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40" t="str" cm="1">
         <f t="array" ref="I14:I24">_xlfn.TOCOL($F$14:$H$30,3)</f>
         <v>あ</v>
       </c>
@@ -2607,179 +2955,295 @@
         <f t="array" ref="J14:J19">_xlfn.UNIQUE(_xlfn.ANCHORARRAY(I14))</f>
         <v>あ</v>
       </c>
-      <c r="K14" s="6" t="str" cm="1">
-        <f t="array" aca="1" ref="K14" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J14,$A$1:$A$9,0))</f>
+      <c r="K14" s="6" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="L14" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="L14" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J14,$A$1:$A$9,0))</f>
         <v>名大理</v>
       </c>
-      <c r="L14" s="6" t="str" cm="1">
-        <f t="array" aca="1" ref="L14" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J14,$A$1:$A$9,0))</f>
+      <c r="M14" s="59" t="str">
+        <f t="shared" ref="M14:M15" si="0">IF(AND($J14&lt;&gt;"",$K14&lt;&gt;""),"^","")</f>
+        <v/>
+      </c>
+      <c r="N14" s="59" t="str">
+        <f>K14</f>
+        <v/>
+      </c>
+      <c r="O14" s="59" t="str">
+        <f>IF(AND($J14&lt;&gt;"",$K14&lt;&gt;""),"^","")</f>
+        <v/>
+      </c>
+      <c r="P14" s="59" t="str">
+        <f>IF($O15&lt;&gt;"","，","")</f>
+        <v>，</v>
+      </c>
+      <c r="Q14" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="Q14" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J14,$A$1:$A$9,0))</f>
         <v>Graduate School of Science, Nagoya University</v>
       </c>
-      <c r="M14" s="6" t="str">
-        <f>CHAR(51+ROW())</f>
+      <c r="R14" s="6" t="str">
+        <f>M14</f>
+        <v/>
+      </c>
+      <c r="S14" s="6" t="str">
+        <f t="shared" ref="S14:U29" si="1">N14</f>
+        <v/>
+      </c>
+      <c r="T14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>，</v>
+      </c>
+      <c r="V14" s="41" t="str" cm="1">
+        <f t="array" aca="1" ref="V14" ca="1">INDIRECT("C"&amp;ROW())&amp;" "&amp;INDIRECT("D"&amp;ROW())</f>
+        <v>後藤 優</v>
+      </c>
+      <c r="W14" s="42" t="str">
+        <f>IF(OR($F14&lt;&gt;"",$G14&lt;&gt;""),"^","")</f>
+        <v>^</v>
+      </c>
+      <c r="X14" s="42" t="str" cm="1">
+        <f t="array" aca="1" ref="X14" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K13),4),"1","")&amp;MATCH($F14,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v/>
+      </c>
+      <c r="Y14" s="42" t="str">
+        <f ca="1">IF(AND($X14&lt;&gt;"",$Z14&lt;&gt;"")," ，","")</f>
+        <v/>
+      </c>
+      <c r="Z14" s="42" t="str">
+        <f t="shared" ref="Z14:Z30" ca="1" si="2">_xlfn.CONCAT("",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K14),4),"1","")&amp;MATCH($G14,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1))</f>
         <v>A</v>
       </c>
-      <c r="N14" s="44" t="str" cm="1">
-        <f t="array" aca="1" ref="N14" ca="1">INDIRECT("C"&amp;ROW())&amp;" "&amp;INDIRECT("D"&amp;ROW())</f>
-        <v>後藤 優</v>
-      </c>
-      <c r="O14" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="45" t="str" cm="1">
-        <f t="array" aca="1" ref="P14" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($F14,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1)</f>
+      <c r="AA14" s="42" t="e">
+        <f t="shared" ref="AA14:AA15" ca="1" si="3">IF(AND($Y14&lt;&gt;"",$AB14&lt;&gt;"")," ，","")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB14" s="42" t="e">
+        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K14),4),"1","")&amp;MATCH($H14,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC14" s="42" t="str">
+        <f>W14</f>
+        <v>^</v>
+      </c>
+      <c r="AD14" s="42" t="str">
+        <f ca="1">IF(NOT(AND($V14&lt;&gt;"",$V15&lt;&gt;"")),"","，")</f>
+        <v>，</v>
+      </c>
+      <c r="AE14" s="42" t="str" cm="1">
+        <f t="array" aca="1" ref="AE14" ca="1">INDIRECT("E"&amp;ROW())&amp;" "&amp;INDIRECT("B"&amp;ROW())</f>
+        <v>Y. Goto</v>
+      </c>
+      <c r="AF14" s="42" t="str">
+        <f>W14</f>
+        <v>^</v>
+      </c>
+      <c r="AG14" s="42" t="str">
+        <f t="shared" ref="AG14:AM29" ca="1" si="4">X14</f>
+        <v/>
+      </c>
+      <c r="AH14" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="AI14" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>A</v>
       </c>
-      <c r="Q14" s="45" t="str">
-        <f t="shared" ref="Q14:Q19" ca="1" si="0">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($G14,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
-        <v>，B</v>
-      </c>
-      <c r="R14" s="45" t="e">
-        <f t="shared" ref="R14:R19" ca="1" si="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($H14,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S14" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="T14" s="45" t="str" cm="1">
-        <f t="array" aca="1" ref="T14" ca="1">INDIRECT("E"&amp;ROW())&amp;" "&amp;INDIRECT("B"&amp;ROW())</f>
-        <v>Y. Goto</v>
-      </c>
-      <c r="U14" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="V14" s="45" t="str" cm="1">
-        <f t="array" aca="1" ref="V14" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($F14,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1)</f>
-        <v>A</v>
-      </c>
-      <c r="W14" s="45" t="str">
-        <f t="shared" ref="W14:W19" ca="1" si="2">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($G14,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
-        <v>，B</v>
-      </c>
-      <c r="X14" s="45" t="e">
-        <f t="shared" ref="X14:X19" ca="1" si="3">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($H14,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y14" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="5"/>
+      <c r="AJ14" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK14" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL14" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>^</v>
+      </c>
+      <c r="AM14" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>，</v>
+      </c>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="5"/>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="49" t="s">
+    <row r="15" spans="1:41">
+      <c r="A15" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="41" t="s">
+      <c r="F15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="6" t="str">
         <v>お</v>
       </c>
       <c r="J15" s="6" t="str">
         <v>お</v>
       </c>
-      <c r="K15" s="6" t="str" cm="1">
-        <f t="array" aca="1" ref="K15" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J15,$A$1:$A$9,0))</f>
+      <c r="K15" s="6" t="str">
+        <f>CHAR(50+ROW())</f>
+        <v>A</v>
+      </c>
+      <c r="L15" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="L15" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J15,$A$1:$A$9,0))</f>
         <v>KMI</v>
       </c>
-      <c r="L15" s="6" t="str" cm="1">
-        <f t="array" aca="1" ref="L15" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J15,$A$1:$A$9,0))</f>
+      <c r="M15" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>^</v>
+      </c>
+      <c r="N15" s="59" t="str">
+        <f>IF($J15&lt;&gt;"",$K15,"")</f>
+        <v>A</v>
+      </c>
+      <c r="O15" s="59" t="str">
+        <f>IF(AND($J15&lt;&gt;"",$K15&lt;&gt;""),"^","")</f>
+        <v>^</v>
+      </c>
+      <c r="P15" s="59" t="str">
+        <f ca="1">IF($L16&lt;&gt;"","，","")</f>
+        <v>，</v>
+      </c>
+      <c r="Q15" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="Q15" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J15,$A$1:$A$9,0))</f>
         <v>Kobayashi - Maskawa Institute, NagoyaUniversity</v>
       </c>
-      <c r="M15" s="6" t="str">
-        <f t="shared" ref="M15:M23" si="4">CHAR(51+ROW())</f>
+      <c r="R15" s="6" t="str">
+        <f t="shared" ref="R15:R30" si="5">M15</f>
+        <v>^</v>
+      </c>
+      <c r="S15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="T15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>^</v>
+      </c>
+      <c r="U15" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>，</v>
+      </c>
+      <c r="V15" s="41" t="str" cm="1">
+        <f t="array" aca="1" ref="V15" ca="1">INDIRECT("C"&amp;ROW())&amp;" "&amp;INDIRECT("D"&amp;ROW())</f>
+        <v>宇佐 儀</v>
+      </c>
+      <c r="W15" s="42" t="str">
+        <f t="shared" ref="W15:W26" si="6">IF(OR($F15&lt;&gt;"",$G15&lt;&gt;""),"^","")</f>
+        <v>^</v>
+      </c>
+      <c r="X15" s="42" t="str" cm="1">
+        <f t="array" aca="1" ref="X15" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K14),4),"1","")&amp;MATCH($F15,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
         <v>B</v>
       </c>
-      <c r="N15" s="44" t="str" cm="1">
-        <f t="array" aca="1" ref="N15" ca="1">INDIRECT("C"&amp;ROW())&amp;" "&amp;INDIRECT("D"&amp;ROW())</f>
-        <v>宇佐 儀</v>
-      </c>
-      <c r="O15" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" s="45" t="str" cm="1">
-        <f t="array" aca="1" ref="P15" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($F15,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1)</f>
-        <v>C</v>
-      </c>
-      <c r="Q15" s="45" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R15" s="45" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S15" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="T15" s="45" t="str" cm="1">
-        <f t="array" aca="1" ref="T15" ca="1">INDIRECT("E"&amp;ROW())&amp;" "&amp;INDIRECT("B"&amp;ROW())</f>
+      <c r="Y15" s="42" t="e">
+        <f t="shared" ref="Y15:Y30" ca="1" si="7">IF(AND($X15&lt;&gt;"",$Z15&lt;&gt;"")," ，","")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z15" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA15" s="42" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB15" s="42" t="e">
+        <f ca="1">_xlfn.CONCAT("，",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K15),4),"1","")&amp;MATCH($H15,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC15" s="42" t="str">
+        <f>W15</f>
+        <v>^</v>
+      </c>
+      <c r="AD15" s="42" t="str">
+        <f t="shared" ref="AD15:AD30" ca="1" si="8">IF(NOT(AND($V15&lt;&gt;"",$V16&lt;&gt;"")),"","，")</f>
+        <v>，</v>
+      </c>
+      <c r="AE15" s="42" t="str" cm="1">
+        <f t="array" aca="1" ref="AE15" ca="1">INDIRECT("E"&amp;ROW())&amp;" "&amp;INDIRECT("B"&amp;ROW())</f>
         <v>G. Usa</v>
       </c>
-      <c r="U15" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="V15" s="45" t="str" cm="1">
-        <f t="array" aca="1" ref="V15" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($F15,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1)</f>
-        <v>C</v>
-      </c>
-      <c r="W15" s="45" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X15" s="45" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y15" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="5"/>
+      <c r="AF15" s="42" t="str">
+        <f t="shared" ref="AF15:AF30" si="9">W15</f>
+        <v>^</v>
+      </c>
+      <c r="AG15" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="AH15" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI15" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ15" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK15" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL15" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v>^</v>
+      </c>
+      <c r="AM15" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>，</v>
+      </c>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="5"/>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="49" t="s">
+    <row r="16" spans="1:41">
+      <c r="A16" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>38</v>
+      <c r="F16" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>36</v>
       </c>
       <c r="I16" s="6" t="str">
         <v>い</v>
@@ -2787,156 +3251,269 @@
       <c r="J16" s="6" t="str">
         <v>い</v>
       </c>
-      <c r="K16" s="6" t="str" cm="1">
-        <f t="array" aca="1" ref="K16" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J16,$A$1:$A$9,0))</f>
+      <c r="K16" s="6" t="str">
+        <f t="shared" ref="K16:K30" si="10">CHAR(50+ROW())</f>
+        <v>B</v>
+      </c>
+      <c r="L16" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="L16" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J16,$A$1:$A$9,0))</f>
         <v xml:space="preserve">高エネルギー加速器研究機構 </v>
       </c>
-      <c r="L16" s="6" t="str" cm="1">
-        <f t="array" aca="1" ref="L16" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J16,$A$1:$A$9,0))</f>
+      <c r="M16" s="59" t="str">
+        <f>IF(AND($J16&lt;&gt;"",$K16&lt;&gt;""),"^","")</f>
+        <v>^</v>
+      </c>
+      <c r="N16" s="59" t="str">
+        <f t="shared" ref="N16:N30" si="11">IF($J16&lt;&gt;"",$K16,"")</f>
+        <v>B</v>
+      </c>
+      <c r="O16" s="59" t="str">
+        <f t="shared" ref="O16:O30" si="12">IF(AND($J16&lt;&gt;"",$K16&lt;&gt;""),"^","")</f>
+        <v>^</v>
+      </c>
+      <c r="P16" s="59" t="str">
+        <f t="shared" ref="P16:P30" ca="1" si="13">IF($L17&lt;&gt;"","，","")</f>
+        <v>，</v>
+      </c>
+      <c r="Q16" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="Q16" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J16,$A$1:$A$9,0))</f>
         <v>Institute of Materials Structure Science, High Energy Accelerator Research Organization (KEK), </v>
       </c>
-      <c r="M16" s="6" t="str">
+      <c r="R16" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>^</v>
+      </c>
+      <c r="S16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="T16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>^</v>
+      </c>
+      <c r="U16" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>，</v>
+      </c>
+      <c r="V16" s="41" t="str" cm="1">
+        <f t="array" aca="1" ref="V16" ca="1">INDIRECT("C"&amp;ROW())&amp;" "&amp;INDIRECT("D"&amp;ROW())</f>
+        <v>マーガレット サッチャー</v>
+      </c>
+      <c r="W16" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v>^</v>
+      </c>
+      <c r="X16" s="42" t="str" cm="1">
+        <f t="array" aca="1" ref="X16" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K15),4),"1","")&amp;MATCH($F16,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>C</v>
+      </c>
+      <c r="Y16" s="42" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v xml:space="preserve"> ，</v>
+      </c>
+      <c r="Z16" s="42" t="str">
+        <f ca="1">_xlfn.CONCAT("",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K16),4),"1","")&amp;MATCH($G16,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1))</f>
+        <v>B</v>
+      </c>
+      <c r="AA16" s="42" t="str">
+        <f ca="1">IF(AND($Y16&lt;&gt;"",$AB16&lt;&gt;"")," ，","")</f>
+        <v xml:space="preserve"> ，</v>
+      </c>
+      <c r="AB16" s="42" t="str" cm="1">
+        <f t="array" aca="1" ref="AB16" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K16),4),"1","")&amp;MATCH($H16,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>A</v>
+      </c>
+      <c r="AC16" s="42" t="str">
+        <f t="shared" ref="AC16:AC30" si="14">W16</f>
+        <v>^</v>
+      </c>
+      <c r="AD16" s="42" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>，</v>
+      </c>
+      <c r="AE16" s="42" t="str" cm="1">
+        <f t="array" aca="1" ref="AE16" ca="1">INDIRECT("E"&amp;ROW())&amp;" "&amp;INDIRECT("B"&amp;ROW())</f>
+        <v>M. H. Thatcher</v>
+      </c>
+      <c r="AF16" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v>^</v>
+      </c>
+      <c r="AG16" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="AH16" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> ，</v>
+      </c>
+      <c r="AI16" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="AJ16" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> ，</v>
+      </c>
+      <c r="AK16" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="AL16" s="42" t="str">
         <f t="shared" si="4"/>
-        <v>C</v>
-      </c>
-      <c r="N16" s="44" t="str" cm="1">
-        <f t="array" aca="1" ref="N16" ca="1">INDIRECT("C"&amp;ROW())&amp;" "&amp;INDIRECT("D"&amp;ROW())</f>
-        <v>マーガレット サッチャー</v>
-      </c>
-      <c r="O16" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="45" t="str" cm="1">
-        <f t="array" aca="1" ref="P16" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($F16,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1)</f>
-        <v>D</v>
-      </c>
-      <c r="Q16" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>，C</v>
-      </c>
-      <c r="R16" s="45" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>，B</v>
-      </c>
-      <c r="S16" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="T16" s="45" t="str" cm="1">
-        <f t="array" aca="1" ref="T16" ca="1">INDIRECT("E"&amp;ROW())&amp;" "&amp;INDIRECT("B"&amp;ROW())</f>
-        <v>M. H. Thatcher</v>
-      </c>
-      <c r="U16" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="V16" s="45" t="str" cm="1">
-        <f t="array" aca="1" ref="V16" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($F16,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1)</f>
-        <v>D</v>
-      </c>
-      <c r="W16" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>，C</v>
-      </c>
-      <c r="X16" s="45" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>，B</v>
-      </c>
-      <c r="Y16" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="5"/>
+        <v>^</v>
+      </c>
+      <c r="AM16" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>，</v>
+      </c>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="5"/>
     </row>
     <row r="17" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
-      <c r="A17" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="41" t="s">
+      <c r="A17" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
+      <c r="F17" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
       <c r="I17" s="6" t="str">
         <v>く</v>
       </c>
       <c r="J17" s="6" t="str">
         <v>く</v>
       </c>
-      <c r="K17" s="6" t="str" cm="1">
-        <f t="array" aca="1" ref="K17" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J17,$A$1:$A$9,0))</f>
+      <c r="K17" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>C</v>
+      </c>
+      <c r="L17" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="L17" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J17,$A$1:$A$9,0))</f>
         <v>名大工</v>
       </c>
-      <c r="L17" s="6" t="str" cm="1">
-        <f t="array" aca="1" ref="L17" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J17,$A$1:$A$9,0))</f>
+      <c r="M17" s="59" t="str">
+        <f t="shared" ref="M17:M30" si="15">IF(AND($J17&lt;&gt;"",$K17&lt;&gt;""),"^","")</f>
+        <v>^</v>
+      </c>
+      <c r="N17" s="59" t="str">
+        <f t="shared" si="11"/>
+        <v>C</v>
+      </c>
+      <c r="O17" s="59" t="str">
+        <f t="shared" si="12"/>
+        <v>^</v>
+      </c>
+      <c r="P17" s="59" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>，</v>
+      </c>
+      <c r="Q17" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="Q17" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J17,$A$1:$A$9,0))</f>
         <v>School of Engineering Graduate School of Engineering</v>
       </c>
-      <c r="M17" s="6" t="str">
+      <c r="R17" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>^</v>
+      </c>
+      <c r="S17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="T17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>^</v>
+      </c>
+      <c r="U17" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>，</v>
+      </c>
+      <c r="V17" s="41" t="str" cm="1">
+        <f t="array" aca="1" ref="V17" ca="1">INDIRECT("C"&amp;ROW())&amp;" "&amp;INDIRECT("D"&amp;ROW())</f>
+        <v>小 可愛</v>
+      </c>
+      <c r="W17" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v>^</v>
+      </c>
+      <c r="X17" s="42" t="str" cm="1">
+        <f t="array" aca="1" ref="X17" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K16),4),"1","")&amp;MATCH($F17,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>D</v>
+      </c>
+      <c r="Y17" s="42" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z17" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA17" s="42" t="e">
+        <f t="shared" ref="AA17:AA30" ca="1" si="16">IF(AND($Y17&lt;&gt;"",$AB17&lt;&gt;"")," ，","")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB17" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="AB17" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K17),4),"1","")&amp;MATCH($H17,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC17" s="42" t="str">
+        <f t="shared" si="14"/>
+        <v>^</v>
+      </c>
+      <c r="AD17" s="42" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>，</v>
+      </c>
+      <c r="AE17" s="42" t="str" cm="1">
+        <f t="array" aca="1" ref="AE17" ca="1">INDIRECT("E"&amp;ROW())&amp;" "&amp;INDIRECT("B"&amp;ROW())</f>
+        <v>K. Chii</v>
+      </c>
+      <c r="AF17" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v>^</v>
+      </c>
+      <c r="AG17" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="AH17" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI17" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ17" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK17" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL17" s="42" t="str">
         <f t="shared" si="4"/>
-        <v>D</v>
-      </c>
-      <c r="N17" s="44" t="str" cm="1">
-        <f t="array" aca="1" ref="N17" ca="1">INDIRECT("C"&amp;ROW())&amp;" "&amp;INDIRECT("D"&amp;ROW())</f>
-        <v>小 可愛</v>
-      </c>
-      <c r="O17" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="45" t="str" cm="1">
-        <f t="array" aca="1" ref="P17" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($F17,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1)</f>
-        <v>E</v>
-      </c>
-      <c r="Q17" s="45" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R17" s="45" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S17" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="T17" s="45" t="str" cm="1">
-        <f t="array" aca="1" ref="T17" ca="1">INDIRECT("E"&amp;ROW())&amp;" "&amp;INDIRECT("B"&amp;ROW())</f>
-        <v>K. Chii</v>
-      </c>
-      <c r="U17" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="V17" s="45" t="str" cm="1">
-        <f t="array" aca="1" ref="V17" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($F17,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1)</f>
-        <v>E</v>
-      </c>
-      <c r="W17" s="45" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X17" s="45" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y17" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AK17" s="2"/>
+        <v>^</v>
+      </c>
+      <c r="AM17" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>，</v>
+      </c>
+      <c r="AN17" s="6"/>
       <c r="AO17" s="2"/>
       <c r="AS17" s="2"/>
       <c r="AW17" s="2"/>
@@ -7025,571 +7602,1674 @@
       <c r="XFA17" s="2"/>
     </row>
     <row r="18" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
-      <c r="A18" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="42"/>
+      <c r="A18" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="39"/>
       <c r="I18" s="6" t="str">
         <v>い</v>
       </c>
       <c r="J18" s="6" t="str">
         <v>う</v>
       </c>
-      <c r="K18" s="6" t="str" cm="1">
-        <f t="array" aca="1" ref="K18" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J18,$A$1:$A$9,0))</f>
+      <c r="K18" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>D</v>
+      </c>
+      <c r="L18" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="L18" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J18,$A$1:$A$9,0))</f>
         <v>総合研究大学院大学</v>
       </c>
-      <c r="L18" s="6" t="str" cm="1">
-        <f t="array" aca="1" ref="L18" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J18,$A$1:$A$9,0))</f>
+      <c r="M18" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v>^</v>
+      </c>
+      <c r="N18" s="59" t="str">
+        <f t="shared" si="11"/>
+        <v>D</v>
+      </c>
+      <c r="O18" s="59" t="str">
+        <f t="shared" si="12"/>
+        <v>^</v>
+      </c>
+      <c r="P18" s="59" t="str">
+        <f ca="1">IF($L19&lt;&gt;"","，","")</f>
+        <v>，</v>
+      </c>
+      <c r="Q18" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="Q18" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J18,$A$1:$A$9,0))</f>
         <v>SOKENDAI</v>
       </c>
-      <c r="M18" s="6" t="str">
+      <c r="R18" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>^</v>
+      </c>
+      <c r="S18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="T18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>^</v>
+      </c>
+      <c r="U18" s="6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>，</v>
+      </c>
+      <c r="V18" s="41" t="str" cm="1">
+        <f t="array" aca="1" ref="V18" ca="1">INDIRECT("C"&amp;ROW())&amp;" "&amp;INDIRECT("D"&amp;ROW())</f>
+        <v>八 我</v>
+      </c>
+      <c r="W18" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v>^</v>
+      </c>
+      <c r="X18" s="42" t="str" cm="1">
+        <f t="array" aca="1" ref="X18" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K17),4),"1","")&amp;MATCH($F18,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>E</v>
+      </c>
+      <c r="Y18" s="42" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v xml:space="preserve"> ，</v>
+      </c>
+      <c r="Z18" s="42" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>D</v>
+      </c>
+      <c r="AA18" s="42" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB18" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="AB18" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K18),4),"1","")&amp;MATCH($H18,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC18" s="42" t="str">
+        <f t="shared" si="14"/>
+        <v>^</v>
+      </c>
+      <c r="AD18" s="42" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>，</v>
+      </c>
+      <c r="AE18" s="42" t="str" cm="1">
+        <f t="array" aca="1" ref="AE18" ca="1">INDIRECT("E"&amp;ROW())&amp;" "&amp;INDIRECT("B"&amp;ROW())</f>
+        <v>W. Hachi</v>
+      </c>
+      <c r="AF18" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v>^</v>
+      </c>
+      <c r="AG18" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>E</v>
+      </c>
+      <c r="AH18" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> ，</v>
+      </c>
+      <c r="AI18" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="AJ18" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK18" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL18" s="42" t="str">
         <f t="shared" si="4"/>
-        <v>E</v>
-      </c>
-      <c r="N18" s="44" t="str" cm="1">
-        <f t="array" aca="1" ref="N18" ca="1">INDIRECT("C"&amp;ROW())&amp;" "&amp;INDIRECT("D"&amp;ROW())</f>
-        <v>八 我</v>
-      </c>
-      <c r="O18" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="45" t="str" cm="1">
-        <f t="array" aca="1" ref="P18" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($F18,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1)</f>
-        <v>F</v>
-      </c>
-      <c r="Q18" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>，E</v>
-      </c>
-      <c r="R18" s="45" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S18" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="T18" s="45" t="str" cm="1">
-        <f t="array" aca="1" ref="T18" ca="1">INDIRECT("E"&amp;ROW())&amp;" "&amp;INDIRECT("B"&amp;ROW())</f>
-        <v>W. Hachi</v>
-      </c>
-      <c r="U18" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="V18" s="45" t="str" cm="1">
-        <f t="array" aca="1" ref="V18" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($F18,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1)</f>
-        <v>F</v>
-      </c>
-      <c r="W18" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>，E</v>
-      </c>
-      <c r="X18" s="45" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y18" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="5"/>
+        <v>^</v>
+      </c>
+      <c r="AM18" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>，</v>
+      </c>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="5"/>
     </row>
     <row r="19" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
-      <c r="A19" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="56" t="s">
+      <c r="A19" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="42"/>
+      <c r="H19" s="39"/>
       <c r="I19" s="6" t="str">
         <v>お</v>
       </c>
       <c r="J19" s="6" t="str">
         <v>き</v>
       </c>
-      <c r="K19" s="6" t="str" cm="1">
-        <f t="array" aca="1" ref="K19" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J19,$A$1:$A$9,0))</f>
+      <c r="K19" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>E</v>
+      </c>
+      <c r="L19" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="L19" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J19,$A$1:$A$9,0))</f>
         <v>東大理</v>
       </c>
-      <c r="L19" s="6" t="str" cm="1">
-        <f t="array" aca="1" ref="L19" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J19,$A$1:$A$9,0))</f>
+      <c r="M19" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v>^</v>
+      </c>
+      <c r="N19" s="59" t="str">
+        <f t="shared" si="11"/>
+        <v>E</v>
+      </c>
+      <c r="O19" s="59" t="str">
+        <f t="shared" si="12"/>
+        <v>^</v>
+      </c>
+      <c r="P19" s="59" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q19" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="Q19" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J19,$A$1:$A$9,0))</f>
         <v>School of Science,  The University of Tokyo</v>
       </c>
-      <c r="M19" s="6" t="str">
+      <c r="R19" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>^</v>
+      </c>
+      <c r="S19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>E</v>
+      </c>
+      <c r="T19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>^</v>
+      </c>
+      <c r="U19" s="6" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V19" s="41" t="str" cm="1">
+        <f t="array" aca="1" ref="V19" ca="1">INDIRECT("C"&amp;ROW())&amp;" "&amp;INDIRECT("D"&amp;ROW())</f>
+        <v>桃 んが</v>
+      </c>
+      <c r="W19" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v>^</v>
+      </c>
+      <c r="X19" s="42" t="str" cm="1">
+        <f t="array" aca="1" ref="X19" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K18),4),"1","")&amp;MATCH($F19,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>E</v>
+      </c>
+      <c r="Y19" s="42" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v xml:space="preserve"> ，</v>
+      </c>
+      <c r="Z19" s="42" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>D</v>
+      </c>
+      <c r="AA19" s="42" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB19" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="AB19" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K19),4),"1","")&amp;MATCH($H19,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC19" s="42" t="str">
+        <f t="shared" si="14"/>
+        <v>^</v>
+      </c>
+      <c r="AD19" s="42" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AE19" s="42" t="str" cm="1">
+        <f t="array" aca="1" ref="AE19" ca="1">INDIRECT("E"&amp;ROW())&amp;" "&amp;INDIRECT("B"&amp;ROW())</f>
+        <v>N. Momo</v>
+      </c>
+      <c r="AF19" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v>^</v>
+      </c>
+      <c r="AG19" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>E</v>
+      </c>
+      <c r="AH19" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> ，</v>
+      </c>
+      <c r="AI19" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="AJ19" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK19" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL19" s="42" t="str">
         <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="N19" s="44" t="str" cm="1">
-        <f t="array" aca="1" ref="N19" ca="1">INDIRECT("C"&amp;ROW())&amp;" "&amp;INDIRECT("D"&amp;ROW())</f>
-        <v>桃 んが</v>
-      </c>
-      <c r="O19" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="45" t="str" cm="1">
-        <f t="array" aca="1" ref="P19" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($F19,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1)</f>
-        <v>F</v>
-      </c>
-      <c r="Q19" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>，E</v>
-      </c>
-      <c r="R19" s="45" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S19" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="T19" s="45" t="str" cm="1">
-        <f t="array" aca="1" ref="T19" ca="1">INDIRECT("E"&amp;ROW())&amp;" "&amp;INDIRECT("B"&amp;ROW())</f>
-        <v>N. Momo</v>
-      </c>
-      <c r="U19" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="V19" s="45" t="str" cm="1">
-        <f t="array" aca="1" ref="V19" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($M$14),4),"1","")&amp;MATCH($F19,_xlfn.ANCHORARRAY($J$14),0)+ROW($N$14)-1)</f>
-        <v>F</v>
-      </c>
-      <c r="W19" s="45" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>，E</v>
-      </c>
-      <c r="X19" s="45" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y19" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="5"/>
+        <v>^</v>
+      </c>
+      <c r="AM19" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="5"/>
     </row>
     <row r="20" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="6" t="str">
         <v>う</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="6" t="e" cm="1">
-        <f t="array" aca="1" ref="K20" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J20,$A$1:$A$9,0))</f>
-        <v>#N/A</v>
+      <c r="K20" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>F</v>
       </c>
       <c r="L20" s="6" t="e" cm="1">
-        <f t="array" aca="1" ref="L20" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J20,$A$1:$A$9,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M20" s="6" t="str">
+        <f t="array" aca="1" ref="L20" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J20,$A$1:$A$9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M20" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N20" s="59" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O20" s="59" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="P20" s="59" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q20" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="Q20" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J20,$A$1:$A$9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R20" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U20" s="6" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V20" s="41"/>
+      <c r="W20" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X20" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="X20" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K19),4),"1","")&amp;MATCH($F20,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y20" s="42" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z20" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA20" s="42" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB20" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="AB20" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K20),4),"1","")&amp;MATCH($H20,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC20" s="42" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD20" s="42" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AG20" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH20" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI20" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ20" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK20" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL20" s="42" t="str">
         <f t="shared" si="4"/>
-        <v>G</v>
-      </c>
-      <c r="N20" s="44"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="5"/>
+        <v/>
+      </c>
+      <c r="AM20" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="5"/>
     </row>
     <row r="21" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
       <c r="I21" s="6" t="str">
         <v>き</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="6" t="e" cm="1">
-        <f t="array" aca="1" ref="K21" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J21,$A$1:$A$9,0))</f>
-        <v>#N/A</v>
+      <c r="K21" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>G</v>
       </c>
       <c r="L21" s="6" t="e" cm="1">
-        <f t="array" aca="1" ref="L21" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J21,$A$1:$A$9,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M21" s="6" t="str">
+        <f t="array" aca="1" ref="L21" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J21,$A$1:$A$9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M21" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N21" s="59" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O21" s="59" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="P21" s="59" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q21" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="Q21" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J21,$A$1:$A$9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R21" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S21" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T21" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U21" s="6" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V21" s="41"/>
+      <c r="W21" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X21" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="X21" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K20),4),"1","")&amp;MATCH($F21,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y21" s="42" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z21" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA21" s="42" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB21" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="AB21" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K21),4),"1","")&amp;MATCH($H21,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC21" s="42" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD21" s="42" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AG21" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH21" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI21" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ21" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK21" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL21" s="42" t="str">
         <f t="shared" si="4"/>
-        <v>H</v>
-      </c>
-      <c r="N21" s="44"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="5"/>
+        <v/>
+      </c>
+      <c r="AM21" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="5"/>
     </row>
     <row r="22" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
-      <c r="A22" s="48"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="6" t="str">
         <v>う</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="6" t="e" cm="1">
-        <f t="array" aca="1" ref="K22" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J22,$A$1:$A$9,0))</f>
-        <v>#N/A</v>
+      <c r="K22" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>H</v>
       </c>
       <c r="L22" s="6" t="e" cm="1">
-        <f t="array" aca="1" ref="L22" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J22,$A$1:$A$9,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M22" s="6" t="str">
-        <f>CHAR(51+ROW())</f>
-        <v>I</v>
-      </c>
-      <c r="N22" s="44"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="5"/>
+        <f t="array" aca="1" ref="L22" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J22,$A$1:$A$9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M22" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N22" s="59" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O22" s="59" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="P22" s="59" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q22" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="Q22" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J22,$A$1:$A$9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R22" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S22" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T22" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U22" s="6" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V22" s="41"/>
+      <c r="W22" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X22" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="X22" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K21),4),"1","")&amp;MATCH($F22,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y22" s="42" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z22" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA22" s="42" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB22" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="AB22" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K22),4),"1","")&amp;MATCH($H22,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC22" s="42" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD22" s="42" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AG22" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH22" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI22" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ22" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK22" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL22" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AM22" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="5"/>
     </row>
     <row r="23" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="22" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
       <c r="I23" s="6" t="str">
         <v>き</v>
       </c>
       <c r="J23" s="6"/>
-      <c r="K23" s="6" t="e" cm="1">
-        <f t="array" aca="1" ref="K23" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J23,$A$1:$A$9,0))</f>
-        <v>#N/A</v>
+      <c r="K23" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>I</v>
       </c>
       <c r="L23" s="6" t="e" cm="1">
-        <f t="array" aca="1" ref="L23" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J23,$A$1:$A$9,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M23" s="6" t="str">
+        <f t="array" aca="1" ref="L23" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J23,$A$1:$A$9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M23" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N23" s="59" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O23" s="59" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="P23" s="59" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q23" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="Q23" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J23,$A$1:$A$9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R23" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S23" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T23" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U23" s="6" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V23" s="41"/>
+      <c r="W23" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X23" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="X23" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K22),4),"1","")&amp;MATCH($F23,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y23" s="42" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z23" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA23" s="42" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB23" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="AB23" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K23),4),"1","")&amp;MATCH($H23,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC23" s="42" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD23" s="42" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AG23" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH23" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI23" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ23" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK23" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL23" s="42" t="str">
         <f t="shared" si="4"/>
-        <v>J</v>
-      </c>
-      <c r="N23" s="44"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="5"/>
+        <v/>
+      </c>
+      <c r="AM23" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="5"/>
     </row>
     <row r="24" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="18" customHeight="1">
-      <c r="A24" s="48"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="6" t="str">
         <v>う</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="5"/>
+      <c r="K24" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>J</v>
+      </c>
+      <c r="L24" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="L24" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J24,$A$1:$A$9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M24" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N24" s="59" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O24" s="59" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="P24" s="59" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q24" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="Q24" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J24,$A$1:$A$9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R24" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U24" s="6" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V24" s="41"/>
+      <c r="W24" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X24" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="X24" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K23),4),"1","")&amp;MATCH($F24,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y24" s="42" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z24" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA24" s="42" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB24" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="AB24" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K24),4),"1","")&amp;MATCH($H24,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC24" s="42" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD24" s="42" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AG24" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH24" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI24" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ24" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK24" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL24" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AM24" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="5"/>
     </row>
     <row r="25" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="17" customHeight="1">
-      <c r="A25" s="48"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="5"/>
+      <c r="K25" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>K</v>
+      </c>
+      <c r="L25" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="L25" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J25,$A$1:$A$9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M25" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N25" s="59" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O25" s="59" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="P25" s="59" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q25" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="Q25" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J25,$A$1:$A$9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R25" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U25" s="6" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V25" s="41"/>
+      <c r="W25" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X25" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="X25" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K24),4),"1","")&amp;MATCH($F25,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y25" s="42" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z25" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA25" s="42" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB25" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="AB25" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K25),4),"1","")&amp;MATCH($H25,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC25" s="42" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD25" s="42" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AG25" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH25" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI25" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ25" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK25" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL25" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AM25" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="5"/>
     </row>
     <row r="26" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="20" customHeight="1">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="39"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="5"/>
+      <c r="K26" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>L</v>
+      </c>
+      <c r="L26" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="L26" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J26,$A$1:$A$9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M26" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N26" s="59" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O26" s="59" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="P26" s="59" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q26" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="Q26" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J26,$A$1:$A$9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R26" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U26" s="6" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V26" s="41"/>
+      <c r="W26" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X26" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="X26" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K25),4),"1","")&amp;MATCH($F26,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y26" s="42" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z26" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA26" s="42" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB26" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="AB26" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K26),4),"1","")&amp;MATCH($H26,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC26" s="42" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD26" s="42" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AG26" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH26" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI26" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ26" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK26" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL26" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AM26" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="5"/>
     </row>
     <row r="27" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="5"/>
+      <c r="K27" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>M</v>
+      </c>
+      <c r="L27" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="L27" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J27,$A$1:$A$9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M27" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N27" s="59" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O27" s="59" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="P27" s="59" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q27" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="Q27" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J27,$A$1:$A$9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R27" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S27" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T27" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U27" s="6" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V27" s="41"/>
+      <c r="W27" s="42" t="str">
+        <f t="shared" ref="W27:W30" si="17">IF(AND($J27&lt;&gt;"",$K27&lt;&gt;""),"^","")</f>
+        <v/>
+      </c>
+      <c r="X27" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="X27" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K26),4),"1","")&amp;MATCH($F27,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y27" s="42" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z27" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA27" s="42" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB27" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="AB27" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K27),4),"1","")&amp;MATCH($H27,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC27" s="42" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD27" s="42" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AG27" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH27" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI27" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ27" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK27" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL27" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AM27" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="5"/>
     </row>
     <row r="28" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="39"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="5"/>
+      <c r="K28" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="L28" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="L28" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J28,$A$1:$A$9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M28" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N28" s="59" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O28" s="59" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="P28" s="59" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q28" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="Q28" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J28,$A$1:$A$9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R28" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S28" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T28" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U28" s="6" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V28" s="41"/>
+      <c r="W28" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X28" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="X28" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K27),4),"1","")&amp;MATCH($F28,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y28" s="42" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z28" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA28" s="42" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB28" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="AB28" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K28),4),"1","")&amp;MATCH($H28,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC28" s="42" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD28" s="42" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE28" s="42"/>
+      <c r="AF28" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AG28" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH28" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI28" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ28" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK28" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL28" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AM28" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="5"/>
     </row>
     <row r="29" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
-      <c r="A29" s="48"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="39"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="5"/>
+      <c r="K29" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>O</v>
+      </c>
+      <c r="L29" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="L29" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J29,$A$1:$A$9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M29" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N29" s="59" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O29" s="59" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="P29" s="59" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q29" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="Q29" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J29,$A$1:$A$9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R29" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S29" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T29" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U29" s="6" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V29" s="41"/>
+      <c r="W29" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X29" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="X29" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K28),4),"1","")&amp;MATCH($F29,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y29" s="42" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z29" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA29" s="42" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB29" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="AB29" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K29),4),"1","")&amp;MATCH($H29,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC29" s="42" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD29" s="42" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE29" s="42"/>
+      <c r="AF29" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AG29" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH29" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI29" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ29" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK29" s="42" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL29" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AM29" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="5"/>
     </row>
     <row r="30" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
-      <c r="A30" s="48"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="39"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="5"/>
+      <c r="K30" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>P</v>
+      </c>
+      <c r="L30" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="L30" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J30,$A$1:$A$9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M30" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N30" s="59" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O30" s="59" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="P30" s="59" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Q30" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="Q30" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($C$1),4),"1","")&amp;MATCH($J30,$A$1:$A$9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R30" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S30" s="6" t="str">
+        <f t="shared" ref="S30" si="18">N30</f>
+        <v/>
+      </c>
+      <c r="T30" s="6" t="str">
+        <f t="shared" ref="T30" si="19">O30</f>
+        <v/>
+      </c>
+      <c r="U30" s="6" t="str">
+        <f t="shared" ref="U30" si="20">P30</f>
+        <v/>
+      </c>
+      <c r="V30" s="41"/>
+      <c r="W30" s="42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X30" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="X30" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K29),4),"1","")&amp;MATCH($F30,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y30" s="42" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z30" s="42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA30" s="42" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB30" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="AB30" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K30),4),"1","")&amp;MATCH($H30,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC30" s="42" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD30" s="42" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE30" s="42"/>
+      <c r="AF30" s="42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AG30" s="42" t="e">
+        <f t="shared" ref="AG30" ca="1" si="21">X30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH30" s="42" t="e">
+        <f t="shared" ref="AH30" ca="1" si="22">Y30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI30" s="42" t="e">
+        <f t="shared" ref="AI30" ca="1" si="23">Z30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ30" s="42" t="e">
+        <f t="shared" ref="AJ30" ca="1" si="24">AA30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK30" s="42" t="e">
+        <f t="shared" ref="AK30" ca="1" si="25">AB30</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL30" s="42" t="str">
+        <f t="shared" ref="AL30:AM30" si="26">AC30</f>
+        <v/>
+      </c>
+      <c r="AM30" s="42" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="5"/>
     </row>
     <row r="31" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
       <c r="A31" s="6"/>
@@ -7604,7 +9284,10 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
+      <c r="M31" s="6" t="str">
+        <f t="shared" ref="M31" si="27">IF($J31&lt;&gt;"","，","")</f>
+        <v/>
+      </c>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
@@ -7620,7 +9303,9 @@
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
-      <c r="AC31" s="5"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="5"/>
     </row>
     <row r="32" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
       <c r="A32" s="6"/>
@@ -7651,63 +9336,71 @@
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
-      <c r="AC32" s="5"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="5"/>
     </row>
-    <row r="33" spans="1:29" ht="21" thickBot="1">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="5"/>
+    <row r="33" spans="1:74" ht="21" thickBot="1">
+      <c r="A33" s="74"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="53"/>
+      <c r="AC33" s="53"/>
+      <c r="AD33" s="53"/>
+      <c r="AE33" s="53"/>
+      <c r="AF33" s="53"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="58"/>
     </row>
-    <row r="34" spans="1:29">
-      <c r="A34" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
+    <row r="34" spans="1:74">
+      <c r="A34" s="76"/>
+      <c r="B34" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
@@ -7715,268 +9408,628 @@
       <c r="Z34" s="6"/>
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="5"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="5"/>
     </row>
-    <row r="35" spans="1:29">
-      <c r="A35" s="6" t="str" cm="1">
-        <f t="array" aca="1" ref="A35:AC35" ca="1">_xlfn.TOROW($N$14:$S$30,3)</f>
+    <row r="35" spans="1:74">
+      <c r="A35" s="64"/>
+      <c r="B35" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="B35:BV35" ca="1">_xlfn.TOROW($V$14:$AD$30,3)</f>
         <v>後藤 優</v>
       </c>
-      <c r="B35" s="6" t="str">
+      <c r="C35" s="57" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="C35" s="6" t="str">
+      <c r="D35" s="57" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="E35" s="57" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="F35" s="57" t="str">
         <f ca="1"/>
         <v>A</v>
       </c>
-      <c r="D35" s="6" t="str">
-        <f ca="1"/>
-        <v>，B</v>
-      </c>
-      <c r="E35" s="6" t="str">
-        <f ca="1"/>
-        <v xml:space="preserve">^, </v>
-      </c>
-      <c r="F35" s="6" t="str">
+      <c r="G35" s="57" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="H35" s="57" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="I35" s="57" t="str">
         <f ca="1"/>
         <v>宇佐 儀</v>
       </c>
-      <c r="G35" s="6" t="str">
+      <c r="J35" s="57" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="H35" s="6" t="str">
+      <c r="K35" s="57" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="L35" s="57" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="M35" s="57" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="N35" s="57" t="str">
+        <f ca="1"/>
+        <v>マーガレット サッチャー</v>
+      </c>
+      <c r="O35" s="57" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="P35" s="57" t="str">
         <f ca="1"/>
         <v>C</v>
       </c>
-      <c r="I35" s="6" t="str">
-        <f ca="1"/>
-        <v xml:space="preserve">^, </v>
-      </c>
-      <c r="J35" s="6" t="str">
-        <f ca="1"/>
-        <v>マーガレット サッチャー</v>
-      </c>
-      <c r="K35" s="6" t="str">
+      <c r="Q35" s="57" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> ，</v>
+      </c>
+      <c r="R35" s="57" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="S35" s="57" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> ，</v>
+      </c>
+      <c r="T35" s="57" t="str">
+        <f ca="1"/>
+        <v>A</v>
+      </c>
+      <c r="U35" s="57" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="L35" s="6" t="str">
+      <c r="V35" s="6" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="W35" s="6" t="str">
+        <f ca="1"/>
+        <v>小 可愛</v>
+      </c>
+      <c r="X35" s="6" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="Y35" s="6" t="str">
         <f ca="1"/>
         <v>D</v>
       </c>
-      <c r="M35" s="6" t="str">
-        <f ca="1"/>
-        <v>，C</v>
-      </c>
-      <c r="N35" s="6" t="str">
-        <f ca="1"/>
-        <v>，B</v>
-      </c>
-      <c r="O35" s="6" t="str">
-        <f ca="1"/>
-        <v xml:space="preserve">^, </v>
-      </c>
-      <c r="P35" s="6" t="str">
-        <f ca="1"/>
-        <v>小 可愛</v>
-      </c>
-      <c r="Q35" s="6" t="str">
+      <c r="Z35" s="6" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="R35" s="6" t="str">
+      <c r="AA35" s="6" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="AB35" s="6" t="str">
+        <f ca="1"/>
+        <v>八 我</v>
+      </c>
+      <c r="AC35" s="6" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="AD35" s="6" t="str">
         <f ca="1"/>
         <v>E</v>
       </c>
-      <c r="S35" s="6" t="str">
-        <f ca="1"/>
-        <v xml:space="preserve">^, </v>
-      </c>
-      <c r="T35" s="6" t="str">
-        <f ca="1"/>
-        <v>八 我</v>
-      </c>
-      <c r="U35" s="6" t="str">
+      <c r="AE35" s="6" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> ，</v>
+      </c>
+      <c r="AF35" s="6" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="AG35" s="5" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="V35" s="6" t="str">
-        <f ca="1"/>
-        <v>F</v>
-      </c>
-      <c r="W35" s="6" t="str">
-        <f ca="1"/>
-        <v>，E</v>
-      </c>
-      <c r="X35" s="6" t="str">
-        <f ca="1"/>
-        <v xml:space="preserve">^, </v>
-      </c>
-      <c r="Y35" s="6" t="str">
+      <c r="AH35" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="AI35" t="str">
         <f ca="1"/>
         <v>桃 んが</v>
       </c>
-      <c r="Z35" s="6" t="str">
+      <c r="AJ35" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="AA35" s="6" t="str">
-        <f ca="1"/>
-        <v>F</v>
-      </c>
-      <c r="AB35" s="6" t="str">
-        <f ca="1"/>
-        <v>，E</v>
-      </c>
-      <c r="AC35" s="5" t="str">
+      <c r="AK35" t="str">
+        <f ca="1"/>
+        <v>E</v>
+      </c>
+      <c r="AL35" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> ，</v>
+      </c>
+      <c r="AM35" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="AN35" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
+      <c r="AO35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AP35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AQ35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AR35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AS35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AT35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AU35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AV35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AW35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AX35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AY35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AZ35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BA35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BB35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BC35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BD35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BE35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BF35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BG35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BH35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BI35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BJ35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BK35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BL35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BM35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BN35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BO35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BP35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BQ35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BR35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BS35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BT35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BU35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BV35" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="36" spans="1:29">
-      <c r="A36" s="6" t="str" cm="1">
-        <f t="array" aca="1" ref="A36:AC36" ca="1">_xlfn.TOROW($T$14:$Y$30,3)</f>
+    <row r="36" spans="1:74" ht="21" thickBot="1">
+      <c r="A36" s="74"/>
+      <c r="B36" s="53" t="str" cm="1">
+        <f t="array" aca="1" ref="B36:BV36" ca="1">_xlfn.TOROW($AE$14:$AM$30,3)</f>
         <v>Y. Goto</v>
       </c>
-      <c r="B36" s="6" t="str">
+      <c r="C36" s="53" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="C36" s="6" t="str">
+      <c r="D36" s="53" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="E36" s="53" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="F36" s="53" t="str">
         <f ca="1"/>
         <v>A</v>
       </c>
-      <c r="D36" s="6" t="str">
-        <f ca="1"/>
-        <v>，B</v>
-      </c>
-      <c r="E36" s="6" t="str">
-        <f ca="1"/>
-        <v xml:space="preserve">^, </v>
-      </c>
-      <c r="F36" s="6" t="str">
+      <c r="G36" s="53" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="H36" s="53" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="I36" s="53" t="str">
         <f ca="1"/>
         <v>G. Usa</v>
       </c>
-      <c r="G36" s="6" t="str">
+      <c r="J36" s="53" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="H36" s="6" t="str">
+      <c r="K36" s="53" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="L36" s="53" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="M36" s="53" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="N36" s="53" t="str">
+        <f ca="1"/>
+        <v>M. H. Thatcher</v>
+      </c>
+      <c r="O36" s="53" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="P36" s="53" t="str">
         <f ca="1"/>
         <v>C</v>
       </c>
-      <c r="I36" s="6" t="str">
-        <f ca="1"/>
-        <v xml:space="preserve">^, </v>
-      </c>
-      <c r="J36" s="6" t="str">
-        <f ca="1"/>
-        <v>M. H. Thatcher</v>
-      </c>
-      <c r="K36" s="6" t="str">
+      <c r="Q36" s="53" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> ，</v>
+      </c>
+      <c r="R36" s="53" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="S36" s="53" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> ，</v>
+      </c>
+      <c r="T36" s="53" t="str">
+        <f ca="1"/>
+        <v>A</v>
+      </c>
+      <c r="U36" s="53" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="L36" s="6" t="str">
+      <c r="V36" s="6" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="W36" s="6" t="str">
+        <f ca="1"/>
+        <v>K. Chii</v>
+      </c>
+      <c r="X36" s="6" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="Y36" s="6" t="str">
         <f ca="1"/>
         <v>D</v>
       </c>
-      <c r="M36" s="6" t="str">
-        <f ca="1"/>
-        <v>，C</v>
-      </c>
-      <c r="N36" s="6" t="str">
-        <f ca="1"/>
-        <v>，B</v>
-      </c>
-      <c r="O36" s="6" t="str">
-        <f ca="1"/>
-        <v xml:space="preserve">^, </v>
-      </c>
-      <c r="P36" s="6" t="str">
-        <f ca="1"/>
-        <v>K. Chii</v>
-      </c>
-      <c r="Q36" s="6" t="str">
+      <c r="Z36" s="6" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="R36" s="6" t="str">
+      <c r="AA36" s="6" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="AB36" s="6" t="str">
+        <f ca="1"/>
+        <v>W. Hachi</v>
+      </c>
+      <c r="AC36" s="6" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="AD36" s="6" t="str">
         <f ca="1"/>
         <v>E</v>
       </c>
-      <c r="S36" s="6" t="str">
-        <f ca="1"/>
-        <v xml:space="preserve">^, </v>
-      </c>
-      <c r="T36" s="6" t="str">
-        <f ca="1"/>
-        <v>W. Hachi</v>
-      </c>
-      <c r="U36" s="6" t="str">
+      <c r="AE36" s="6" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> ，</v>
+      </c>
+      <c r="AF36" s="6" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="AG36" s="5" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="V36" s="6" t="str">
-        <f ca="1"/>
-        <v>F</v>
-      </c>
-      <c r="W36" s="6" t="str">
-        <f ca="1"/>
-        <v>，E</v>
-      </c>
-      <c r="X36" s="6" t="str">
-        <f ca="1"/>
-        <v xml:space="preserve">^, </v>
-      </c>
-      <c r="Y36" s="6" t="str">
+      <c r="AH36" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="AI36" t="str">
         <f ca="1"/>
         <v>N. Momo</v>
       </c>
-      <c r="Z36" s="6" t="str">
+      <c r="AJ36" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="AA36" s="6" t="str">
-        <f ca="1"/>
-        <v>F</v>
-      </c>
-      <c r="AB36" s="6" t="str">
-        <f ca="1"/>
-        <v>，E</v>
-      </c>
-      <c r="AC36" s="5" t="str">
+      <c r="AK36" t="str">
+        <f ca="1"/>
+        <v>E</v>
+      </c>
+      <c r="AL36" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> ，</v>
+      </c>
+      <c r="AM36" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="AN36" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
+      <c r="AO36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AP36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AQ36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AR36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AS36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AT36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AU36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AV36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AW36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AX36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AY36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AZ36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BA36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BB36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BC36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BD36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BE36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BF36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BG36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BH36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BI36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BJ36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BK36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BL36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BM36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BN36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BO36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BP36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BQ36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BR36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BS36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BT36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BU36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BV36" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="37" spans="1:29" ht="21" thickBot="1">
-      <c r="A37" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
+    <row r="37" spans="1:74">
+      <c r="A37" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="57"/>
+      <c r="U37" s="57"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
@@ -7984,14 +10037,17 @@
       <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
-      <c r="AC37" s="5"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="5"/>
     </row>
-    <row r="38" spans="1:29">
-      <c r="A38" s="47" t="str">
-        <f ca="1">_xlfn.CONCAT(_xlfn.ANCHORARRAY($A$35))</f>
-        <v>後藤 優^A，B^, 宇佐 儀^C^, マーガレット サッチャー^D，C，B^, 小 可愛^E^, 八 我^F，E^, 桃 んが^F，E^</v>
-      </c>
-      <c r="B38" s="6"/>
+    <row r="38" spans="1:74">
+      <c r="B38" s="43" t="str">
+        <f ca="1">_xlfn.CONCAT(_xlfn.ANCHORARRAY($B$35))</f>
+        <v>後藤 優^A^，宇佐 儀^B^，マーガレット サッチャー^C ，B ，A^，小 可愛^D^，八 我^E ，D^，桃 んが^E ，D^</v>
+      </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -8018,14 +10074,17 @@
       <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
-      <c r="AC38" s="5"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="5"/>
     </row>
-    <row r="39" spans="1:29">
-      <c r="A39" s="47" t="str">
-        <f ca="1">_xlfn.CONCAT(_xlfn.ANCHORARRAY($A$36))</f>
-        <v>Y. Goto^A，B^, G. Usa^C^, M. H. Thatcher^D，C，B^, K. Chii^E^, W. Hachi^F，E^, N. Momo^F，E^</v>
-      </c>
-      <c r="B39" s="6"/>
+    <row r="39" spans="1:74" ht="21" thickBot="1">
+      <c r="B39" s="43" t="str">
+        <f ca="1">_xlfn.CONCAT(_xlfn.ANCHORARRAY($B$36))</f>
+        <v>Y. Goto^A^，G. Usa^B^，M. H. Thatcher^C ，B ，A^，K. Chii^D^，W. Hachi^E ，D^，N. Momo^E ，D^</v>
+      </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -8052,32 +10111,36 @@
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
-      <c r="AC39" s="5"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="5"/>
     </row>
-    <row r="40" spans="1:29">
-      <c r="A40" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
+    <row r="40" spans="1:74">
+      <c r="A40" s="76"/>
+      <c r="B40" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="56"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="56"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
@@ -8085,125 +10148,654 @@
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
-      <c r="AC40" s="5"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="5"/>
     </row>
-    <row r="41" spans="1:29">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
-      <c r="AB41" s="6"/>
-      <c r="AC41" s="5"/>
+    <row r="41" spans="1:74">
+      <c r="A41" s="64"/>
+      <c r="B41" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="B41:BL41" ca="1">_xlfn.TOROW(L14:P30,3)</f>
+        <v>名大理</v>
+      </c>
+      <c r="C41" s="57" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="D41" s="57" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="E41" s="57" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="F41" s="57" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="G41" s="57" t="str">
+        <f ca="1"/>
+        <v>KMI</v>
+      </c>
+      <c r="H41" s="57" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="I41" s="57" t="str">
+        <f ca="1"/>
+        <v>A</v>
+      </c>
+      <c r="J41" s="57" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="K41" s="57" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="L41" s="57" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve">高エネルギー加速器研究機構 </v>
+      </c>
+      <c r="M41" s="57" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="N41" s="57" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="O41" s="57" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="P41" s="57" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="Q41" s="57" t="str">
+        <f ca="1"/>
+        <v>名大工</v>
+      </c>
+      <c r="R41" s="57" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="S41" s="57" t="str">
+        <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="T41" s="57" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="U41" s="57" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="V41" s="6" t="str">
+        <f ca="1"/>
+        <v>総合研究大学院大学</v>
+      </c>
+      <c r="W41" s="6" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="X41" s="6" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="Y41" s="6" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="Z41" s="6" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="AA41" s="6" t="str">
+        <f ca="1"/>
+        <v>東大理</v>
+      </c>
+      <c r="AB41" s="6" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="AC41" s="6" t="str">
+        <f ca="1"/>
+        <v>E</v>
+      </c>
+      <c r="AD41" s="6" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="AE41" s="6" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AF41" s="5" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AG41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AH41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AI41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AJ41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AK41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AL41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AM41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AN41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AO41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AP41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AQ41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AR41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AS41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AT41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AU41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AV41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AW41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AX41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AY41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AZ41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BA41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BB41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BC41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BD41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BE41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BF41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BG41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BH41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BI41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BJ41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BK41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BL41" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="42" spans="1:29">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="5"/>
+    <row r="42" spans="1:74" ht="21" thickBot="1">
+      <c r="A42" s="74"/>
+      <c r="B42" s="53" t="str" cm="1">
+        <f t="array" aca="1" ref="B42:BL42" ca="1">_xlfn.TOROW(Q14:U30,3)</f>
+        <v>Graduate School of Science, Nagoya University</v>
+      </c>
+      <c r="C42" s="53" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="D42" s="53" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="E42" s="53" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="F42" s="53" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="G42" s="53" t="str">
+        <f ca="1"/>
+        <v>Kobayashi - Maskawa Institute, NagoyaUniversity</v>
+      </c>
+      <c r="H42" s="53" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="I42" s="53" t="str">
+        <f ca="1"/>
+        <v>A</v>
+      </c>
+      <c r="J42" s="53" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="K42" s="53" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="L42" s="53" t="str">
+        <f ca="1"/>
+        <v>Institute of Materials Structure Science, High Energy Accelerator Research Organization (KEK), </v>
+      </c>
+      <c r="M42" s="53" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="N42" s="53" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="O42" s="53" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="P42" s="53" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="Q42" s="53" t="str">
+        <f ca="1"/>
+        <v>School of Engineering Graduate School of Engineering</v>
+      </c>
+      <c r="R42" s="53" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="S42" s="53" t="str">
+        <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="T42" s="53" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="U42" s="53" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="V42" s="6" t="str">
+        <f ca="1"/>
+        <v>SOKENDAI</v>
+      </c>
+      <c r="W42" s="6" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="X42" s="6" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="Y42" s="6" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="Z42" s="6" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="AA42" s="6" t="str">
+        <f ca="1"/>
+        <v>School of Science,  The University of Tokyo</v>
+      </c>
+      <c r="AB42" s="6" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="AC42" s="6" t="str">
+        <f ca="1"/>
+        <v>E</v>
+      </c>
+      <c r="AD42" s="6" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="AE42" s="6" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AF42" s="5" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AG42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AH42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AI42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AJ42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AK42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AL42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AM42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AN42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AO42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AP42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AQ42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AR42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AS42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AT42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AU42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AV42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AW42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AX42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AY42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AZ42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BA42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BB42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BC42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BD42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BE42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BF42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BG42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BH42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BI42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BJ42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BK42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="BL42" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="51" spans="1:29" ht="24">
+    <row r="43" spans="1:74">
+      <c r="A43" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="57"/>
+      <c r="S43" s="57"/>
+      <c r="T43" s="57"/>
+      <c r="U43" s="57"/>
+    </row>
+    <row r="44" spans="1:74">
+      <c r="B44" s="43" t="str">
+        <f ca="1">_xlfn.CONCAT(_xlfn.ANCHORARRAY($B$41))</f>
+        <v>名大理，KMI^A^，高エネルギー加速器研究機構 ^B^，名大工^C^，総合研究大学院大学^D^，東大理^E^</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+    </row>
+    <row r="45" spans="1:74">
+      <c r="B45" s="43" t="str">
+        <f ca="1">_xlfn.CONCAT(_xlfn.ANCHORARRAY($B$42))</f>
+        <v>Graduate School of Science, Nagoya University，Kobayashi - Maskawa Institute, NagoyaUniversity^A^，Institute of Materials Structure Science, High Energy Accelerator Research Organization (KEK), ^B^，School of Engineering Graduate School of Engineering^C^，SOKENDAI^D^，School of Science,  The University of Tokyo^E^</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+    </row>
+    <row r="51" spans="1:31" ht="24">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:31">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" spans="1:31">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:29">
+    <row r="54" spans="1:31">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="AC54" s="2"/>
+      <c r="AE54" s="2"/>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55" spans="1:31">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:29">
+    <row r="56" spans="1:31">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:29">
+    <row r="57" spans="1:31">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:31">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="1:29">
+    <row r="59" spans="1:31">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:29">
+    <row r="60" spans="1:31">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:29">
+    <row r="61" spans="1:31">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:31">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:29">
+    <row r="63" spans="1:31">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:31">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
     </row>
@@ -8228,6 +10820,9 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:H19">
     <sortCondition ref="A15:A19"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="AA1:AE11"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/物理学会の所属を書くためのエクセル.xlsx
+++ b/物理学会の所属を書くためのエクセル.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gotoyu/Documents/GitHub/Write-down-Co-Authors/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gotoyu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EACCA1C-6F0B-5245-A513-421A436E8BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4DEDEF-322C-104B-9238-711EE4F093FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28540" windowHeight="16940" xr2:uid="{BF62DBFF-CEEB-C143-9F28-3D7B4BA14EF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>KMI</t>
     <phoneticPr fontId="1"/>
@@ -1006,11 +1006,56 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ここをコピペ！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>↓この列の一番上を空白にしたいときは(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>="")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>にすること</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">イチバン </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ウエ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">クウハクニシタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="24"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="MS Mincho"/>
         <family val="1"/>
         <charset val="128"/>
@@ -1021,7 +1066,7 @@
       <rPr>
         <b/>
         <sz val="24"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1031,7 +1076,7 @@
       <rPr>
         <b/>
         <sz val="24"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="MS Mincho"/>
         <family val="1"/>
         <charset val="128"/>
@@ -1042,7 +1087,7 @@
       <rPr>
         <b/>
         <sz val="24"/>
-        <color theme="1"/>
+        <color theme="4" tint="0.39997558519241921"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1052,7 +1097,7 @@
       <rPr>
         <b/>
         <sz val="24"/>
-        <color theme="1"/>
+        <color theme="4" tint="0.39997558519241921"/>
         <rFont val="MS Mincho"/>
         <family val="1"/>
         <charset val="128"/>
@@ -1063,7 +1108,7 @@
       <rPr>
         <b/>
         <sz val="24"/>
-        <color theme="1"/>
+        <color theme="4" tint="0.39997558519241921"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1073,7 +1118,7 @@
       <rPr>
         <b/>
         <sz val="24"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="MS Mincho"/>
         <family val="1"/>
         <charset val="128"/>
@@ -1084,7 +1129,7 @@
       <rPr>
         <b/>
         <sz val="24"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="128"/>
@@ -1096,17 +1141,132 @@
       <rPr>
         <b/>
         <sz val="24"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="MS Mincho"/>
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">所属と名前を入力
-所属に対応させたひらがなを三つまで入力
-名前を五十音またはアルファベットでソート
-(ソートしなければ上から出力します)
-下に物理学会共著者入力用の出力が出てくるので
-必要に応じて選択範囲を変更
+      <t>所属と名前を入力</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>所属に対応させたひらがなを三つまで入力</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>名前を五十音またはアルファベットでソート</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ソートしなければ上から出力します</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>下に物理学会共著者入力用の出力が出てくるので</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>必要に応じて選択範囲を変更</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <rPh sb="0" eb="1">
@@ -1189,58 +1349,12 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>ここをコピペ！！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>めんどくなってきた</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>↓この列の一番上は(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>="")</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>にすること</t>
-    </r>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">イチバン </t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t xml:space="preserve">ウエ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1363,29 +1477,6 @@
     </font>
     <font>
       <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="MS Mincho"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -1397,6 +1488,44 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS Mincho"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="MS Mincho"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
@@ -1768,7 +1897,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1940,9 +2069,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1955,46 +2081,13 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
@@ -2003,11 +2096,38 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2356,8 +2476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D07450C-E36D-FF49-90F9-73F4066498AB}">
   <dimension ref="A1:XFA68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2373,13 +2493,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="21" customHeight="1" thickBot="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="58" t="s">
         <v>68</v>
       </c>
       <c r="D1" s="6"/>
@@ -2405,22 +2525,22 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
-      <c r="AA1" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="66"/>
+      <c r="AA1" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="70"/>
     </row>
     <row r="2" spans="1:41" ht="21" customHeight="1" thickBot="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="6"/>
@@ -2448,20 +2568,20 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="11"/>
       <c r="Z2" s="6"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="69"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="73"/>
     </row>
     <row r="3" spans="1:41" ht="20" customHeight="1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="6"/>
@@ -2491,20 +2611,20 @@
       <c r="X3" s="15"/>
       <c r="Y3" s="16"/>
       <c r="Z3" s="6"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="69"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="73"/>
     </row>
     <row r="4" spans="1:41" ht="20" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="6"/>
@@ -2534,20 +2654,20 @@
       <c r="X4" s="20"/>
       <c r="Y4" s="21"/>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="68"/>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="69"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="73"/>
     </row>
     <row r="5" spans="1:41" ht="20" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="6"/>
@@ -2577,20 +2697,20 @@
       <c r="X5" s="20"/>
       <c r="Y5" s="21"/>
       <c r="Z5" s="6"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="68"/>
-      <c r="AD5" s="68"/>
-      <c r="AE5" s="69"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="73"/>
     </row>
     <row r="6" spans="1:41" ht="20" customHeight="1">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="6"/>
@@ -2600,9 +2720,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="48" t="s">
-        <v>82</v>
-      </c>
+      <c r="K6" s="48"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -2622,20 +2740,20 @@
       <c r="X6" s="20"/>
       <c r="Y6" s="21"/>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="69"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="73"/>
     </row>
     <row r="7" spans="1:41" ht="20" customHeight="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>70</v>
       </c>
       <c r="D7" s="6"/>
@@ -2665,20 +2783,20 @@
       <c r="X7" s="20"/>
       <c r="Y7" s="21"/>
       <c r="Z7" s="6"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="68"/>
-      <c r="AE7" s="69"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="73"/>
     </row>
     <row r="8" spans="1:41" ht="21" customHeight="1" thickBot="1">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="58" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="6"/>
@@ -2708,11 +2826,11 @@
       <c r="X8" s="25"/>
       <c r="Y8" s="26"/>
       <c r="Z8" s="6"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="68"/>
-      <c r="AD8" s="68"/>
-      <c r="AE8" s="69"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="73"/>
     </row>
     <row r="9" spans="1:41" ht="25" customHeight="1">
       <c r="A9" s="6"/>
@@ -2741,11 +2859,11 @@
       <c r="X9" s="27"/>
       <c r="Y9" s="27"/>
       <c r="Z9" s="27"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="68"/>
-      <c r="AE9" s="69"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="73"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="2"/>
@@ -2789,11 +2907,11 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="68"/>
-      <c r="AC10" s="68"/>
-      <c r="AD10" s="68"/>
-      <c r="AE10" s="69"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="73"/>
     </row>
     <row r="11" spans="1:41" ht="21" customHeight="1" thickBot="1">
       <c r="A11" s="6"/>
@@ -2808,7 +2926,7 @@
       <c r="H11" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="73"/>
+      <c r="I11" s="62"/>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
       <c r="L11" s="52"/>
@@ -2826,11 +2944,11 @@
       <c r="X11" s="52"/>
       <c r="Y11" s="52"/>
       <c r="Z11" s="52"/>
-      <c r="AA11" s="70"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="72"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="76"/>
     </row>
     <row r="12" spans="1:41">
       <c r="A12" s="55" t="s">
@@ -2851,8 +2969,8 @@
       <c r="J12" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="79" t="s">
-        <v>83</v>
+      <c r="K12" s="67" t="s">
+        <v>81</v>
       </c>
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
@@ -2880,14 +2998,14 @@
         <v>77</v>
       </c>
       <c r="B13" s="33"/>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="29" t="s">
         <v>44</v>
       </c>
@@ -2956,26 +3074,26 @@
         <v>あ</v>
       </c>
       <c r="K14" s="6" t="str">
-        <f>""</f>
-        <v/>
+        <f>CHAR(51+ROW())</f>
+        <v>A</v>
       </c>
       <c r="L14" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="L14" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J14,$A$1:$A$9,0))</f>
         <v>名大理</v>
       </c>
-      <c r="M14" s="59" t="str">
+      <c r="M14" s="58" t="str">
         <f t="shared" ref="M14:M15" si="0">IF(AND($J14&lt;&gt;"",$K14&lt;&gt;""),"^","")</f>
-        <v/>
-      </c>
-      <c r="N14" s="59" t="str">
+        <v>^</v>
+      </c>
+      <c r="N14" s="58" t="str">
         <f>K14</f>
-        <v/>
-      </c>
-      <c r="O14" s="59" t="str">
+        <v>A</v>
+      </c>
+      <c r="O14" s="58" t="str">
         <f>IF(AND($J14&lt;&gt;"",$K14&lt;&gt;""),"^","")</f>
-        <v/>
-      </c>
-      <c r="P14" s="59" t="str">
+        <v>^</v>
+      </c>
+      <c r="P14" s="58" t="str">
         <f>IF($O15&lt;&gt;"","，","")</f>
         <v>，</v>
       </c>
@@ -2985,15 +3103,15 @@
       </c>
       <c r="R14" s="6" t="str">
         <f>M14</f>
-        <v/>
+        <v>^</v>
       </c>
       <c r="S14" s="6" t="str">
         <f t="shared" ref="S14:U29" si="1">N14</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="T14" s="6" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>^</v>
       </c>
       <c r="U14" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3009,15 +3127,15 @@
       </c>
       <c r="X14" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="X14" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K13),4),"1","")&amp;MATCH($F14,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="Y14" s="42" t="str">
         <f ca="1">IF(AND($X14&lt;&gt;"",$Z14&lt;&gt;"")," ，","")</f>
-        <v/>
+        <v xml:space="preserve"> ，</v>
       </c>
       <c r="Z14" s="42" t="str">
         <f t="shared" ref="Z14:Z30" ca="1" si="2">_xlfn.CONCAT("",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K14),4),"1","")&amp;MATCH($G14,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1))</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="AA14" s="42" t="e">
         <f t="shared" ref="AA14:AA15" ca="1" si="3">IF(AND($Y14&lt;&gt;"",$AB14&lt;&gt;"")," ，","")</f>
@@ -3045,15 +3163,15 @@
       </c>
       <c r="AG14" s="42" t="str">
         <f t="shared" ref="AG14:AM29" ca="1" si="4">X14</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="AH14" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve"> ，</v>
       </c>
       <c r="AI14" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="AJ14" s="42" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -3102,26 +3220,26 @@
         <v>お</v>
       </c>
       <c r="K15" s="6" t="str">
-        <f>CHAR(50+ROW())</f>
-        <v>A</v>
+        <f>CHAR(51+ROW())</f>
+        <v>B</v>
       </c>
       <c r="L15" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="L15" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J15,$A$1:$A$9,0))</f>
         <v>KMI</v>
       </c>
-      <c r="M15" s="59" t="str">
+      <c r="M15" s="58" t="str">
         <f t="shared" si="0"/>
         <v>^</v>
       </c>
-      <c r="N15" s="59" t="str">
+      <c r="N15" s="58" t="str">
         <f>IF($J15&lt;&gt;"",$K15,"")</f>
-        <v>A</v>
-      </c>
-      <c r="O15" s="59" t="str">
+        <v>B</v>
+      </c>
+      <c r="O15" s="58" t="str">
         <f>IF(AND($J15&lt;&gt;"",$K15&lt;&gt;""),"^","")</f>
         <v>^</v>
       </c>
-      <c r="P15" s="59" t="str">
+      <c r="P15" s="58" t="str">
         <f ca="1">IF($L16&lt;&gt;"","，","")</f>
         <v>，</v>
       </c>
@@ -3135,7 +3253,7 @@
       </c>
       <c r="S15" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="T15" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3155,7 +3273,7 @@
       </c>
       <c r="X15" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="X15" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K14),4),"1","")&amp;MATCH($F15,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="Y15" s="42" t="e">
         <f t="shared" ref="Y15:Y30" ca="1" si="7">IF(AND($X15&lt;&gt;"",$Z15&lt;&gt;"")," ，","")</f>
@@ -3191,7 +3309,7 @@
       </c>
       <c r="AG15" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="AH15" s="42" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -3252,26 +3370,26 @@
         <v>い</v>
       </c>
       <c r="K16" s="6" t="str">
-        <f t="shared" ref="K16:K30" si="10">CHAR(50+ROW())</f>
-        <v>B</v>
+        <f t="shared" ref="K16:K30" si="10">CHAR(51+ROW())</f>
+        <v>C</v>
       </c>
       <c r="L16" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="L16" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J16,$A$1:$A$9,0))</f>
         <v xml:space="preserve">高エネルギー加速器研究機構 </v>
       </c>
-      <c r="M16" s="59" t="str">
+      <c r="M16" s="58" t="str">
         <f>IF(AND($J16&lt;&gt;"",$K16&lt;&gt;""),"^","")</f>
         <v>^</v>
       </c>
-      <c r="N16" s="59" t="str">
+      <c r="N16" s="58" t="str">
         <f t="shared" ref="N16:N30" si="11">IF($J16&lt;&gt;"",$K16,"")</f>
-        <v>B</v>
-      </c>
-      <c r="O16" s="59" t="str">
+        <v>C</v>
+      </c>
+      <c r="O16" s="58" t="str">
         <f t="shared" ref="O16:O30" si="12">IF(AND($J16&lt;&gt;"",$K16&lt;&gt;""),"^","")</f>
         <v>^</v>
       </c>
-      <c r="P16" s="59" t="str">
+      <c r="P16" s="58" t="str">
         <f t="shared" ref="P16:P30" ca="1" si="13">IF($L17&lt;&gt;"","，","")</f>
         <v>，</v>
       </c>
@@ -3285,7 +3403,7 @@
       </c>
       <c r="S16" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="T16" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3305,7 +3423,7 @@
       </c>
       <c r="X16" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="X16" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K15),4),"1","")&amp;MATCH($F16,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="Y16" s="42" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3313,7 +3431,7 @@
       </c>
       <c r="Z16" s="42" t="str">
         <f ca="1">_xlfn.CONCAT("",INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K16),4),"1","")&amp;MATCH($G16,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1))</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="AA16" s="42" t="str">
         <f ca="1">IF(AND($Y16&lt;&gt;"",$AB16&lt;&gt;"")," ，","")</f>
@@ -3321,7 +3439,7 @@
       </c>
       <c r="AB16" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="AB16" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K16),4),"1","")&amp;MATCH($H16,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="AC16" s="42" t="str">
         <f t="shared" ref="AC16:AC30" si="14">W16</f>
@@ -3341,7 +3459,7 @@
       </c>
       <c r="AG16" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="AH16" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3349,7 +3467,7 @@
       </c>
       <c r="AI16" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="AJ16" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3357,7 +3475,7 @@
       </c>
       <c r="AK16" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="AL16" s="42" t="str">
         <f t="shared" si="4"/>
@@ -3399,25 +3517,25 @@
       </c>
       <c r="K17" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="L17" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="L17" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J17,$A$1:$A$9,0))</f>
         <v>名大工</v>
       </c>
-      <c r="M17" s="59" t="str">
+      <c r="M17" s="58" t="str">
         <f t="shared" ref="M17:M30" si="15">IF(AND($J17&lt;&gt;"",$K17&lt;&gt;""),"^","")</f>
         <v>^</v>
       </c>
-      <c r="N17" s="59" t="str">
+      <c r="N17" s="58" t="str">
         <f t="shared" si="11"/>
-        <v>C</v>
-      </c>
-      <c r="O17" s="59" t="str">
+        <v>D</v>
+      </c>
+      <c r="O17" s="58" t="str">
         <f t="shared" si="12"/>
         <v>^</v>
       </c>
-      <c r="P17" s="59" t="str">
+      <c r="P17" s="58" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>，</v>
       </c>
@@ -3431,7 +3549,7 @@
       </c>
       <c r="S17" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="T17" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3451,7 +3569,7 @@
       </c>
       <c r="X17" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="X17" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K16),4),"1","")&amp;MATCH($F17,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="Y17" s="42" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -3487,7 +3605,7 @@
       </c>
       <c r="AG17" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="AH17" s="42" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7632,25 +7750,25 @@
       </c>
       <c r="K18" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="L18" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="L18" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J18,$A$1:$A$9,0))</f>
         <v>総合研究大学院大学</v>
       </c>
-      <c r="M18" s="59" t="str">
+      <c r="M18" s="58" t="str">
         <f t="shared" si="15"/>
         <v>^</v>
       </c>
-      <c r="N18" s="59" t="str">
+      <c r="N18" s="58" t="str">
         <f t="shared" si="11"/>
-        <v>D</v>
-      </c>
-      <c r="O18" s="59" t="str">
+        <v>E</v>
+      </c>
+      <c r="O18" s="58" t="str">
         <f t="shared" si="12"/>
         <v>^</v>
       </c>
-      <c r="P18" s="59" t="str">
+      <c r="P18" s="58" t="str">
         <f ca="1">IF($L19&lt;&gt;"","，","")</f>
         <v>，</v>
       </c>
@@ -7664,7 +7782,7 @@
       </c>
       <c r="S18" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="T18" s="6" t="str">
         <f t="shared" si="1"/>
@@ -7684,7 +7802,7 @@
       </c>
       <c r="X18" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="X18" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K17),4),"1","")&amp;MATCH($F18,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="Y18" s="42" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -7692,7 +7810,7 @@
       </c>
       <c r="Z18" s="42" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="AA18" s="42" t="e">
         <f t="shared" ca="1" si="16"/>
@@ -7720,7 +7838,7 @@
       </c>
       <c r="AG18" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="AH18" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7728,7 +7846,7 @@
       </c>
       <c r="AI18" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="AJ18" s="42" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7780,25 +7898,25 @@
       </c>
       <c r="K19" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="L19" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="L19" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J19,$A$1:$A$9,0))</f>
         <v>東大理</v>
       </c>
-      <c r="M19" s="59" t="str">
+      <c r="M19" s="58" t="str">
         <f t="shared" si="15"/>
         <v>^</v>
       </c>
-      <c r="N19" s="59" t="str">
+      <c r="N19" s="58" t="str">
         <f t="shared" si="11"/>
-        <v>E</v>
-      </c>
-      <c r="O19" s="59" t="str">
+        <v>F</v>
+      </c>
+      <c r="O19" s="58" t="str">
         <f t="shared" si="12"/>
         <v>^</v>
       </c>
-      <c r="P19" s="59" t="e">
+      <c r="P19" s="58" t="e">
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
@@ -7812,7 +7930,7 @@
       </c>
       <c r="S19" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="T19" s="6" t="str">
         <f t="shared" si="1"/>
@@ -7832,7 +7950,7 @@
       </c>
       <c r="X19" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="X19" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($K18),4),"1","")&amp;MATCH($F19,_xlfn.ANCHORARRAY($J$14),0)+ROW($V$14)-1)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="Y19" s="42" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -7840,7 +7958,7 @@
       </c>
       <c r="Z19" s="42" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="AA19" s="42" t="e">
         <f t="shared" ca="1" si="16"/>
@@ -7868,7 +7986,7 @@
       </c>
       <c r="AG19" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="AH19" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7876,7 +7994,7 @@
       </c>
       <c r="AI19" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="AJ19" s="42" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -7912,25 +8030,25 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>F</v>
+        <v>G</v>
       </c>
       <c r="L20" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="L20" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J20,$A$1:$A$9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M20" s="59" t="str">
+      <c r="M20" s="58" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N20" s="59" t="str">
+      <c r="N20" s="58" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O20" s="59" t="str">
+      <c r="O20" s="58" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P20" s="59" t="e">
+      <c r="P20" s="58" t="e">
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
@@ -8038,25 +8156,25 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="L21" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="L21" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J21,$A$1:$A$9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M21" s="59" t="str">
+      <c r="M21" s="58" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N21" s="59" t="str">
+      <c r="N21" s="58" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O21" s="59" t="str">
+      <c r="O21" s="58" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P21" s="59" t="e">
+      <c r="P21" s="58" t="e">
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
@@ -8164,25 +8282,25 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>H</v>
+        <v>I</v>
       </c>
       <c r="L22" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="L22" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J22,$A$1:$A$9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M22" s="59" t="str">
+      <c r="M22" s="58" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N22" s="59" t="str">
+      <c r="N22" s="58" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O22" s="59" t="str">
+      <c r="O22" s="58" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P22" s="59" t="e">
+      <c r="P22" s="58" t="e">
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
@@ -8290,25 +8408,25 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>I</v>
+        <v>J</v>
       </c>
       <c r="L23" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="L23" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J23,$A$1:$A$9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M23" s="59" t="str">
+      <c r="M23" s="58" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N23" s="59" t="str">
+      <c r="N23" s="58" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O23" s="59" t="str">
+      <c r="O23" s="58" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P23" s="59" t="e">
+      <c r="P23" s="58" t="e">
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
@@ -8416,25 +8534,25 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>J</v>
+        <v>K</v>
       </c>
       <c r="L24" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="L24" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J24,$A$1:$A$9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M24" s="59" t="str">
+      <c r="M24" s="58" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N24" s="59" t="str">
+      <c r="N24" s="58" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O24" s="59" t="str">
+      <c r="O24" s="58" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P24" s="59" t="e">
+      <c r="P24" s="58" t="e">
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
@@ -8540,25 +8658,25 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>K</v>
+        <v>L</v>
       </c>
       <c r="L25" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="L25" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J25,$A$1:$A$9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M25" s="59" t="str">
+      <c r="M25" s="58" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N25" s="59" t="str">
+      <c r="N25" s="58" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O25" s="59" t="str">
+      <c r="O25" s="58" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P25" s="59" t="e">
+      <c r="P25" s="58" t="e">
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
@@ -8664,25 +8782,25 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>L</v>
+        <v>M</v>
       </c>
       <c r="L26" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="L26" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J26,$A$1:$A$9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M26" s="59" t="str">
+      <c r="M26" s="58" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N26" s="59" t="str">
+      <c r="N26" s="58" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O26" s="59" t="str">
+      <c r="O26" s="58" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P26" s="59" t="e">
+      <c r="P26" s="58" t="e">
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
@@ -8788,25 +8906,25 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>M</v>
+        <v>N</v>
       </c>
       <c r="L27" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="L27" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J27,$A$1:$A$9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M27" s="59" t="str">
+      <c r="M27" s="58" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N27" s="59" t="str">
+      <c r="N27" s="58" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O27" s="59" t="str">
+      <c r="O27" s="58" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P27" s="59" t="e">
+      <c r="P27" s="58" t="e">
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
@@ -8912,25 +9030,25 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>N</v>
+        <v>O</v>
       </c>
       <c r="L28" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="L28" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J28,$A$1:$A$9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M28" s="59" t="str">
+      <c r="M28" s="58" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N28" s="59" t="str">
+      <c r="N28" s="58" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O28" s="59" t="str">
+      <c r="O28" s="58" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P28" s="59" t="e">
+      <c r="P28" s="58" t="e">
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
@@ -9036,25 +9154,25 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>O</v>
+        <v>P</v>
       </c>
       <c r="L29" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="L29" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J29,$A$1:$A$9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M29" s="59" t="str">
+      <c r="M29" s="58" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N29" s="59" t="str">
+      <c r="N29" s="58" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O29" s="59" t="str">
+      <c r="O29" s="58" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P29" s="59" t="e">
+      <c r="P29" s="58" t="e">
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
@@ -9160,25 +9278,25 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>Q</v>
       </c>
       <c r="L30" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="L30" ca="1">INDIRECT(SUBSTITUTE(ADDRESS(1,COLUMN($B$1),4),"1","")&amp;MATCH($J30,$A$1:$A$9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M30" s="59" t="str">
+      <c r="M30" s="58" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N30" s="59" t="str">
+      <c r="N30" s="58" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O30" s="59" t="str">
+      <c r="O30" s="58" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P30" s="59" t="str">
+      <c r="P30" s="58" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -9271,7 +9389,7 @@
       <c r="AN30" s="6"/>
       <c r="AO30" s="5"/>
     </row>
-    <row r="31" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381">
+    <row r="31" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16381" ht="21" thickBot="1">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -9282,7 +9400,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="K31" s="53"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6" t="str">
         <f t="shared" ref="M31" si="27">IF($J31&lt;&gt;"","，","")</f>
@@ -9342,7 +9460,7 @@
       <c r="AF32" s="5"/>
     </row>
     <row r="33" spans="1:74" ht="21" thickBot="1">
-      <c r="A33" s="74"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
       <c r="D33" s="53"/>
@@ -9352,7 +9470,6 @@
       <c r="H33" s="53"/>
       <c r="I33" s="53"/>
       <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
       <c r="L33" s="53"/>
       <c r="M33" s="53"/>
       <c r="N33" s="53"/>
@@ -9375,11 +9492,11 @@
       <c r="AE33" s="53"/>
       <c r="AF33" s="53"/>
       <c r="AG33" s="53"/>
-      <c r="AH33" s="58"/>
+      <c r="AH33" s="57"/>
     </row>
     <row r="34" spans="1:74">
-      <c r="A34" s="76"/>
-      <c r="B34" s="77" t="s">
+      <c r="A34" s="64"/>
+      <c r="B34" s="65" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="56"/>
@@ -9415,158 +9532,157 @@
       <c r="AG34" s="5"/>
     </row>
     <row r="35" spans="1:74">
-      <c r="A35" s="64"/>
-      <c r="B35" s="57" t="str" cm="1">
+      <c r="B35" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="B35:BV35" ca="1">_xlfn.TOROW($V$14:$AD$30,3)</f>
         <v>後藤 優</v>
       </c>
-      <c r="C35" s="57" t="str">
+      <c r="C35" s="6" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="D35" s="57" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="E35" s="57" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="F35" s="57" t="str">
+      <c r="D35" s="6" t="str">
         <f ca="1"/>
         <v>A</v>
       </c>
-      <c r="G35" s="57" t="str">
+      <c r="E35" s="6" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> ，</v>
+      </c>
+      <c r="F35" s="6" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="G35" s="6" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="H35" s="57" t="str">
+      <c r="H35" s="6" t="str">
         <f ca="1"/>
         <v>，</v>
       </c>
-      <c r="I35" s="57" t="str">
+      <c r="I35" s="6" t="str">
         <f ca="1"/>
         <v>宇佐 儀</v>
       </c>
-      <c r="J35" s="57" t="str">
+      <c r="J35" s="6" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="K35" s="57" t="str">
+      <c r="K35" s="6" t="str">
+        <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="L35" s="6" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="M35" s="6" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="N35" s="6" t="str">
+        <f ca="1"/>
+        <v>マーガレット サッチャー</v>
+      </c>
+      <c r="O35" s="6" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="P35" s="6" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="Q35" s="6" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> ，</v>
+      </c>
+      <c r="R35" s="6" t="str">
+        <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="S35" s="6" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> ，</v>
+      </c>
+      <c r="T35" s="6" t="str">
         <f ca="1"/>
         <v>B</v>
       </c>
-      <c r="L35" s="57" t="str">
+      <c r="U35" s="6" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="M35" s="57" t="str">
+      <c r="V35" s="6" t="str">
         <f ca="1"/>
         <v>，</v>
       </c>
-      <c r="N35" s="57" t="str">
-        <f ca="1"/>
-        <v>マーガレット サッチャー</v>
-      </c>
-      <c r="O35" s="57" t="str">
+      <c r="W35" s="6" t="str">
+        <f ca="1"/>
+        <v>小 可愛</v>
+      </c>
+      <c r="X35" s="6" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="P35" s="57" t="str">
-        <f ca="1"/>
-        <v>C</v>
-      </c>
-      <c r="Q35" s="57" t="str">
+      <c r="Y35" s="6" t="str">
+        <f ca="1"/>
+        <v>E</v>
+      </c>
+      <c r="Z35" s="6" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="AA35" s="6" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="AB35" s="6" t="str">
+        <f ca="1"/>
+        <v>八 我</v>
+      </c>
+      <c r="AC35" s="6" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="AD35" s="6" t="str">
+        <f ca="1"/>
+        <v>F</v>
+      </c>
+      <c r="AE35" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> ，</v>
       </c>
-      <c r="R35" s="57" t="str">
-        <f ca="1"/>
-        <v>B</v>
-      </c>
-      <c r="S35" s="57" t="str">
+      <c r="AF35" s="6" t="str">
+        <f ca="1"/>
+        <v>E</v>
+      </c>
+      <c r="AG35" s="5" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="AH35" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="AI35" t="str">
+        <f ca="1"/>
+        <v>桃 んが</v>
+      </c>
+      <c r="AJ35" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="AK35" t="str">
+        <f ca="1"/>
+        <v>F</v>
+      </c>
+      <c r="AL35" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> ，</v>
       </c>
-      <c r="T35" s="57" t="str">
-        <f ca="1"/>
-        <v>A</v>
-      </c>
-      <c r="U35" s="57" t="str">
-        <f ca="1"/>
-        <v>^</v>
-      </c>
-      <c r="V35" s="6" t="str">
-        <f ca="1"/>
-        <v>，</v>
-      </c>
-      <c r="W35" s="6" t="str">
-        <f ca="1"/>
-        <v>小 可愛</v>
-      </c>
-      <c r="X35" s="6" t="str">
-        <f ca="1"/>
-        <v>^</v>
-      </c>
-      <c r="Y35" s="6" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="Z35" s="6" t="str">
-        <f ca="1"/>
-        <v>^</v>
-      </c>
-      <c r="AA35" s="6" t="str">
-        <f ca="1"/>
-        <v>，</v>
-      </c>
-      <c r="AB35" s="6" t="str">
-        <f ca="1"/>
-        <v>八 我</v>
-      </c>
-      <c r="AC35" s="6" t="str">
-        <f ca="1"/>
-        <v>^</v>
-      </c>
-      <c r="AD35" s="6" t="str">
+      <c r="AM35" t="str">
         <f ca="1"/>
         <v>E</v>
-      </c>
-      <c r="AE35" s="6" t="str">
-        <f ca="1"/>
-        <v xml:space="preserve"> ，</v>
-      </c>
-      <c r="AF35" s="6" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="AG35" s="5" t="str">
-        <f ca="1"/>
-        <v>^</v>
-      </c>
-      <c r="AH35" t="str">
-        <f ca="1"/>
-        <v>，</v>
-      </c>
-      <c r="AI35" t="str">
-        <f ca="1"/>
-        <v>桃 んが</v>
-      </c>
-      <c r="AJ35" t="str">
-        <f ca="1"/>
-        <v>^</v>
-      </c>
-      <c r="AK35" t="str">
-        <f ca="1"/>
-        <v>E</v>
-      </c>
-      <c r="AL35" t="str">
-        <f ca="1"/>
-        <v xml:space="preserve"> ，</v>
-      </c>
-      <c r="AM35" t="str">
-        <f ca="1"/>
-        <v>D</v>
       </c>
       <c r="AN35" t="str">
         <f ca="1"/>
@@ -9710,7 +9826,7 @@
       </c>
     </row>
     <row r="36" spans="1:74" ht="21" thickBot="1">
-      <c r="A36" s="74"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="53" t="str" cm="1">
         <f t="array" aca="1" ref="B36:BV36" ca="1">_xlfn.TOROW($AE$14:$AM$30,3)</f>
         <v>Y. Goto</v>
@@ -9721,15 +9837,15 @@
       </c>
       <c r="D36" s="53" t="str">
         <f ca="1"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="E36" s="53" t="str">
         <f ca="1"/>
-        <v/>
+        <v xml:space="preserve"> ，</v>
       </c>
       <c r="F36" s="53" t="str">
         <f ca="1"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="G36" s="53" t="str">
         <f ca="1"/>
@@ -9749,119 +9865,119 @@
       </c>
       <c r="K36" s="53" t="str">
         <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="L36" s="53" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="M36" s="53" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="N36" s="53" t="str">
+        <f ca="1"/>
+        <v>M. H. Thatcher</v>
+      </c>
+      <c r="O36" s="53" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="P36" s="53" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="Q36" s="53" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> ，</v>
+      </c>
+      <c r="R36" s="53" t="str">
+        <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="S36" s="53" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> ，</v>
+      </c>
+      <c r="T36" s="53" t="str">
+        <f ca="1"/>
         <v>B</v>
       </c>
-      <c r="L36" s="53" t="str">
+      <c r="U36" s="53" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="M36" s="53" t="str">
+      <c r="V36" s="6" t="str">
         <f ca="1"/>
         <v>，</v>
       </c>
-      <c r="N36" s="53" t="str">
-        <f ca="1"/>
-        <v>M. H. Thatcher</v>
-      </c>
-      <c r="O36" s="53" t="str">
+      <c r="W36" s="6" t="str">
+        <f ca="1"/>
+        <v>K. Chii</v>
+      </c>
+      <c r="X36" s="6" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="P36" s="53" t="str">
-        <f ca="1"/>
-        <v>C</v>
-      </c>
-      <c r="Q36" s="53" t="str">
+      <c r="Y36" s="6" t="str">
+        <f ca="1"/>
+        <v>E</v>
+      </c>
+      <c r="Z36" s="6" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="AA36" s="6" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="AB36" s="6" t="str">
+        <f ca="1"/>
+        <v>W. Hachi</v>
+      </c>
+      <c r="AC36" s="6" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="AD36" s="6" t="str">
+        <f ca="1"/>
+        <v>F</v>
+      </c>
+      <c r="AE36" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> ，</v>
       </c>
-      <c r="R36" s="53" t="str">
-        <f ca="1"/>
-        <v>B</v>
-      </c>
-      <c r="S36" s="53" t="str">
+      <c r="AF36" s="6" t="str">
+        <f ca="1"/>
+        <v>E</v>
+      </c>
+      <c r="AG36" s="5" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="AH36" t="str">
+        <f ca="1"/>
+        <v>，</v>
+      </c>
+      <c r="AI36" t="str">
+        <f ca="1"/>
+        <v>N. Momo</v>
+      </c>
+      <c r="AJ36" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="AK36" t="str">
+        <f ca="1"/>
+        <v>F</v>
+      </c>
+      <c r="AL36" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> ，</v>
       </c>
-      <c r="T36" s="53" t="str">
-        <f ca="1"/>
-        <v>A</v>
-      </c>
-      <c r="U36" s="53" t="str">
-        <f ca="1"/>
-        <v>^</v>
-      </c>
-      <c r="V36" s="6" t="str">
-        <f ca="1"/>
-        <v>，</v>
-      </c>
-      <c r="W36" s="6" t="str">
-        <f ca="1"/>
-        <v>K. Chii</v>
-      </c>
-      <c r="X36" s="6" t="str">
-        <f ca="1"/>
-        <v>^</v>
-      </c>
-      <c r="Y36" s="6" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="Z36" s="6" t="str">
-        <f ca="1"/>
-        <v>^</v>
-      </c>
-      <c r="AA36" s="6" t="str">
-        <f ca="1"/>
-        <v>，</v>
-      </c>
-      <c r="AB36" s="6" t="str">
-        <f ca="1"/>
-        <v>W. Hachi</v>
-      </c>
-      <c r="AC36" s="6" t="str">
-        <f ca="1"/>
-        <v>^</v>
-      </c>
-      <c r="AD36" s="6" t="str">
+      <c r="AM36" t="str">
         <f ca="1"/>
         <v>E</v>
-      </c>
-      <c r="AE36" s="6" t="str">
-        <f ca="1"/>
-        <v xml:space="preserve"> ，</v>
-      </c>
-      <c r="AF36" s="6" t="str">
-        <f ca="1"/>
-        <v>D</v>
-      </c>
-      <c r="AG36" s="5" t="str">
-        <f ca="1"/>
-        <v>^</v>
-      </c>
-      <c r="AH36" t="str">
-        <f ca="1"/>
-        <v>，</v>
-      </c>
-      <c r="AI36" t="str">
-        <f ca="1"/>
-        <v>N. Momo</v>
-      </c>
-      <c r="AJ36" t="str">
-        <f ca="1"/>
-        <v>^</v>
-      </c>
-      <c r="AK36" t="str">
-        <f ca="1"/>
-        <v>E</v>
-      </c>
-      <c r="AL36" t="str">
-        <f ca="1"/>
-        <v xml:space="preserve"> ，</v>
-      </c>
-      <c r="AM36" t="str">
-        <f ca="1"/>
-        <v>D</v>
       </c>
       <c r="AN36" t="str">
         <f ca="1"/>
@@ -10005,31 +10121,31 @@
       </c>
     </row>
     <row r="37" spans="1:74">
-      <c r="A37" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="75" t="s">
+      <c r="A37" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57"/>
-      <c r="U37" s="57"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
@@ -10046,7 +10162,7 @@
     <row r="38" spans="1:74">
       <c r="B38" s="43" t="str">
         <f ca="1">_xlfn.CONCAT(_xlfn.ANCHORARRAY($B$35))</f>
-        <v>後藤 優^A^，宇佐 儀^B^，マーガレット サッチャー^C ，B ，A^，小 可愛^D^，八 我^E ，D^，桃 んが^E ，D^</v>
+        <v>後藤 優^A ，B^，宇佐 儀^C^，マーガレット サッチャー^D ，C ，B^，小 可愛^E^，八 我^F ，E^，桃 んが^F ，E^</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -10083,7 +10199,7 @@
     <row r="39" spans="1:74" ht="21" thickBot="1">
       <c r="B39" s="43" t="str">
         <f ca="1">_xlfn.CONCAT(_xlfn.ANCHORARRAY($B$36))</f>
-        <v>Y. Goto^A^，G. Usa^B^，M. H. Thatcher^C ，B ，A^，K. Chii^D^，W. Hachi^E ，D^，N. Momo^E ，D^</v>
+        <v>Y. Goto^A ，B^，G. Usa^C^，M. H. Thatcher^D ，C ，B^，K. Chii^E^，W. Hachi^F ，E^，N. Momo^F ，E^</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -10118,8 +10234,8 @@
       <c r="AG39" s="5"/>
     </row>
     <row r="40" spans="1:74">
-      <c r="A40" s="76"/>
-      <c r="B40" s="77" t="s">
+      <c r="A40" s="64"/>
+      <c r="B40" s="65" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="56"/>
@@ -10155,84 +10271,83 @@
       <c r="AG40" s="5"/>
     </row>
     <row r="41" spans="1:74">
-      <c r="A41" s="64"/>
-      <c r="B41" s="57" t="str" cm="1">
+      <c r="B41" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="B41:BL41" ca="1">_xlfn.TOROW(L14:P30,3)</f>
         <v>名大理</v>
       </c>
-      <c r="C41" s="57" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="D41" s="57" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="E41" s="57" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="F41" s="57" t="str">
+      <c r="C41" s="6" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="D41" s="6" t="str">
+        <f ca="1"/>
+        <v>A</v>
+      </c>
+      <c r="E41" s="6" t="str">
+        <f ca="1"/>
+        <v>^</v>
+      </c>
+      <c r="F41" s="6" t="str">
         <f ca="1"/>
         <v>，</v>
       </c>
-      <c r="G41" s="57" t="str">
+      <c r="G41" s="6" t="str">
         <f ca="1"/>
         <v>KMI</v>
       </c>
-      <c r="H41" s="57" t="str">
+      <c r="H41" s="6" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="I41" s="57" t="str">
-        <f ca="1"/>
-        <v>A</v>
-      </c>
-      <c r="J41" s="57" t="str">
+      <c r="I41" s="6" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="J41" s="6" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="K41" s="57" t="str">
+      <c r="K41" s="6" t="str">
         <f ca="1"/>
         <v>，</v>
       </c>
-      <c r="L41" s="57" t="str">
+      <c r="L41" s="6" t="str">
         <f ca="1"/>
         <v xml:space="preserve">高エネルギー加速器研究機構 </v>
       </c>
-      <c r="M41" s="57" t="str">
+      <c r="M41" s="6" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="N41" s="57" t="str">
-        <f ca="1"/>
-        <v>B</v>
-      </c>
-      <c r="O41" s="57" t="str">
+      <c r="N41" s="6" t="str">
+        <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="O41" s="6" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="P41" s="57" t="str">
+      <c r="P41" s="6" t="str">
         <f ca="1"/>
         <v>，</v>
       </c>
-      <c r="Q41" s="57" t="str">
+      <c r="Q41" s="6" t="str">
         <f ca="1"/>
         <v>名大工</v>
       </c>
-      <c r="R41" s="57" t="str">
+      <c r="R41" s="6" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="S41" s="57" t="str">
-        <f ca="1"/>
-        <v>C</v>
-      </c>
-      <c r="T41" s="57" t="str">
+      <c r="S41" s="6" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="T41" s="6" t="str">
         <f ca="1"/>
         <v>^</v>
       </c>
-      <c r="U41" s="57" t="str">
+      <c r="U41" s="6" t="str">
         <f ca="1"/>
         <v>，</v>
       </c>
@@ -10246,7 +10361,7 @@
       </c>
       <c r="X41" s="6" t="str">
         <f ca="1"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="Y41" s="6" t="str">
         <f ca="1"/>
@@ -10266,7 +10381,7 @@
       </c>
       <c r="AC41" s="6" t="str">
         <f ca="1"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="AD41" s="6" t="str">
         <f ca="1"/>
@@ -10410,22 +10525,22 @@
       </c>
     </row>
     <row r="42" spans="1:74" ht="21" thickBot="1">
-      <c r="A42" s="74"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="53" t="str" cm="1">
         <f t="array" aca="1" ref="B42:BL42" ca="1">_xlfn.TOROW(Q14:U30,3)</f>
         <v>Graduate School of Science, Nagoya University</v>
       </c>
       <c r="C42" s="53" t="str">
         <f ca="1"/>
-        <v/>
+        <v>^</v>
       </c>
       <c r="D42" s="53" t="str">
         <f ca="1"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="E42" s="53" t="str">
         <f ca="1"/>
-        <v/>
+        <v>^</v>
       </c>
       <c r="F42" s="53" t="str">
         <f ca="1"/>
@@ -10441,7 +10556,7 @@
       </c>
       <c r="I42" s="53" t="str">
         <f ca="1"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="J42" s="53" t="str">
         <f ca="1"/>
@@ -10461,7 +10576,7 @@
       </c>
       <c r="N42" s="53" t="str">
         <f ca="1"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="O42" s="53" t="str">
         <f ca="1"/>
@@ -10481,7 +10596,7 @@
       </c>
       <c r="S42" s="53" t="str">
         <f ca="1"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="T42" s="53" t="str">
         <f ca="1"/>
@@ -10501,7 +10616,7 @@
       </c>
       <c r="X42" s="6" t="str">
         <f ca="1"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="Y42" s="6" t="str">
         <f ca="1"/>
@@ -10521,7 +10636,7 @@
       </c>
       <c r="AC42" s="6" t="str">
         <f ca="1"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="AD42" s="6" t="str">
         <f ca="1"/>
@@ -10665,36 +10780,36 @@
       </c>
     </row>
     <row r="43" spans="1:74">
-      <c r="A43" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="75" t="s">
+      <c r="A43" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="57"/>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="57"/>
-      <c r="R43" s="57"/>
-      <c r="S43" s="57"/>
-      <c r="T43" s="57"/>
-      <c r="U43" s="57"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
     </row>
     <row r="44" spans="1:74">
       <c r="B44" s="43" t="str">
         <f ca="1">_xlfn.CONCAT(_xlfn.ANCHORARRAY($B$41))</f>
-        <v>名大理，KMI^A^，高エネルギー加速器研究機構 ^B^，名大工^C^，総合研究大学院大学^D^，東大理^E^</v>
+        <v>名大理^A^，KMI^B^，高エネルギー加速器研究機構 ^C^，名大工^D^，総合研究大学院大学^E^，東大理^F^</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -10719,7 +10834,7 @@
     <row r="45" spans="1:74">
       <c r="B45" s="43" t="str">
         <f ca="1">_xlfn.CONCAT(_xlfn.ANCHORARRAY($B$42))</f>
-        <v>Graduate School of Science, Nagoya University，Kobayashi - Maskawa Institute, NagoyaUniversity^A^，Institute of Materials Structure Science, High Energy Accelerator Research Organization (KEK), ^B^，School of Engineering Graduate School of Engineering^C^，SOKENDAI^D^，School of Science,  The University of Tokyo^E^</v>
+        <v>Graduate School of Science, Nagoya University^A^，Kobayashi - Maskawa Institute, NagoyaUniversity^B^，Institute of Materials Structure Science, High Energy Accelerator Research Organization (KEK), ^C^，School of Engineering Graduate School of Engineering^D^，SOKENDAI^E^，School of Science,  The University of Tokyo^F^</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
